--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -33,22 +33,73 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>GD-73</t>
+    <t>pkg4-green</t>
+  </si>
+  <si>
+    <t>P1-01-2</t>
+  </si>
+  <si>
+    <t>RC-24</t>
+  </si>
+  <si>
+    <t>proline54</t>
+  </si>
+  <si>
+    <t>P2-04-1</t>
+  </si>
+  <si>
+    <t>COMPUTER DESK</t>
+  </si>
+  <si>
+    <t>GD-62</t>
+  </si>
+  <si>
+    <t>P1-15-3</t>
+  </si>
+  <si>
+    <t>GAMING CHAIR</t>
+  </si>
+  <si>
+    <t>proline43</t>
+  </si>
+  <si>
+    <t>RC-28</t>
+  </si>
+  <si>
+    <t>P1-02-1</t>
+  </si>
+  <si>
+    <t>proline39</t>
+  </si>
+  <si>
+    <t>RC-21</t>
   </si>
   <si>
     <t>P99</t>
   </si>
   <si>
-    <t>GD-74</t>
-  </si>
-  <si>
-    <t>GD-64</t>
-  </si>
-  <si>
-    <t>GD-63</t>
-  </si>
-  <si>
-    <t>GD-61</t>
+    <t>proline41</t>
+  </si>
+  <si>
+    <t>RC-23</t>
+  </si>
+  <si>
+    <t>proline38</t>
+  </si>
+  <si>
+    <t>RC-19</t>
+  </si>
+  <si>
+    <t>RC-02</t>
+  </si>
+  <si>
+    <t>proline53</t>
+  </si>
+  <si>
+    <t>proline2</t>
+  </si>
+  <si>
+    <t>RC-03</t>
   </si>
 </sst>
 </file>
@@ -399,7 +450,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -407,9 +458,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -445,7 +496,7 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -453,67 +504,152 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>251</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -33,73 +33,49 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>pkg4-green</t>
-  </si>
-  <si>
-    <t>P1-01-2</t>
-  </si>
-  <si>
-    <t>RC-24</t>
-  </si>
-  <si>
-    <t>proline54</t>
-  </si>
-  <si>
-    <t>P2-04-1</t>
-  </si>
-  <si>
-    <t>COMPUTER DESK</t>
-  </si>
-  <si>
-    <t>GD-62</t>
-  </si>
-  <si>
-    <t>P1-15-3</t>
-  </si>
-  <si>
-    <t>GAMING CHAIR</t>
-  </si>
-  <si>
-    <t>proline43</t>
-  </si>
-  <si>
-    <t>RC-28</t>
-  </si>
-  <si>
-    <t>P1-02-1</t>
-  </si>
-  <si>
-    <t>proline39</t>
-  </si>
-  <si>
-    <t>RC-21</t>
-  </si>
-  <si>
-    <t>P99</t>
-  </si>
-  <si>
-    <t>proline41</t>
-  </si>
-  <si>
-    <t>RC-23</t>
-  </si>
-  <si>
-    <t>proline38</t>
-  </si>
-  <si>
-    <t>RC-19</t>
-  </si>
-  <si>
-    <t>RC-02</t>
-  </si>
-  <si>
-    <t>proline53</t>
-  </si>
-  <si>
-    <t>proline2</t>
-  </si>
-  <si>
-    <t>RC-03</t>
+    <t>107308200294</t>
+  </si>
+  <si>
+    <t>10007C</t>
+  </si>
+  <si>
+    <t>107308200809</t>
+  </si>
+  <si>
+    <t>107308200179</t>
+  </si>
+  <si>
+    <t>10033A</t>
+  </si>
+  <si>
+    <t>107308200889</t>
+  </si>
+  <si>
+    <t>107308200616</t>
+  </si>
+  <si>
+    <t>107308204238</t>
+  </si>
+  <si>
+    <t>10010B</t>
+  </si>
+  <si>
+    <t>107308200166</t>
+  </si>
+  <si>
+    <t>107308204192</t>
+  </si>
+  <si>
+    <t>10021A</t>
+  </si>
+  <si>
+    <t>107308200658</t>
+  </si>
+  <si>
+    <t>107308206118</t>
+  </si>
+  <si>
+    <t>10034B</t>
   </si>
 </sst>
 </file>
@@ -458,9 +434,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -496,7 +472,7 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>77</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -504,81 +480,81 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
+      <c r="D3">
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>44</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -586,70 +562,70 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>47</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>32</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -33,49 +33,22 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>107308200294</t>
-  </si>
-  <si>
-    <t>10007C</t>
-  </si>
-  <si>
-    <t>107308200809</t>
-  </si>
-  <si>
-    <t>107308200179</t>
-  </si>
-  <si>
-    <t>10033A</t>
-  </si>
-  <si>
-    <t>107308200889</t>
-  </si>
-  <si>
-    <t>107308200616</t>
-  </si>
-  <si>
-    <t>107308204238</t>
-  </si>
-  <si>
-    <t>10010B</t>
-  </si>
-  <si>
-    <t>107308200166</t>
-  </si>
-  <si>
-    <t>107308204192</t>
-  </si>
-  <si>
-    <t>10021A</t>
-  </si>
-  <si>
-    <t>107308200658</t>
-  </si>
-  <si>
-    <t>107308206118</t>
-  </si>
-  <si>
-    <t>10034B</t>
+    <t>OKT_OK_2542_D1</t>
+  </si>
+  <si>
+    <t>768189916160</t>
+  </si>
+  <si>
+    <t>107308206306</t>
+  </si>
+  <si>
+    <t>10038B</t>
+  </si>
+  <si>
+    <t>107308200846</t>
+  </si>
+  <si>
+    <t>107308201087</t>
   </si>
 </sst>
 </file>
@@ -434,9 +407,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -463,149 +436,149 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2">
+        <v>27003</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="A3">
+        <v>10100021</v>
+      </c>
+      <c r="B3">
+        <v>10100021</v>
+      </c>
+      <c r="C3">
+        <v>10100021</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>666</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+      <c r="A4">
+        <v>10100022</v>
+      </c>
+      <c r="B4">
+        <v>10100022</v>
+      </c>
+      <c r="C4">
+        <v>10100022</v>
+      </c>
+      <c r="D4">
+        <v>666</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+      <c r="A5">
+        <v>10100012</v>
+      </c>
+      <c r="B5">
+        <v>10100012</v>
+      </c>
+      <c r="C5">
+        <v>10100012</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>666</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+      <c r="A6">
+        <v>10100011</v>
+      </c>
+      <c r="B6">
+        <v>10100011</v>
+      </c>
+      <c r="C6">
+        <v>10100011</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>666</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
+      <c r="A7">
+        <v>10100040</v>
+      </c>
+      <c r="B7">
+        <v>10100040</v>
+      </c>
+      <c r="C7">
+        <v>10100040</v>
+      </c>
+      <c r="D7">
+        <v>666</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
+      <c r="A8">
+        <v>10100030</v>
+      </c>
+      <c r="B8">
+        <v>10100030</v>
+      </c>
+      <c r="C8">
+        <v>10100030</v>
       </c>
       <c r="D8">
-        <v>47</v>
+        <v>666</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -613,16 +586,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
       </c>
       <c r="E11">
         <v>1</v>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -33,22 +33,28 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>ACK-81980-2</t>
+  </si>
+  <si>
+    <t>639036819807</t>
+  </si>
+  <si>
+    <t>10099C</t>
+  </si>
+  <si>
     <t>OKT_OK_2542_D1</t>
   </si>
   <si>
     <t>768189916160</t>
   </si>
   <si>
-    <t>107308206306</t>
-  </si>
-  <si>
-    <t>10038B</t>
-  </si>
-  <si>
-    <t>107308200846</t>
-  </si>
-  <si>
-    <t>107308201087</t>
+    <t>107308200294</t>
+  </si>
+  <si>
+    <t>10007C</t>
+  </si>
+  <si>
+    <t>107308203743</t>
   </si>
 </sst>
 </file>
@@ -441,39 +447,39 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>27003</v>
       </c>
-      <c r="E2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>10100021</v>
-      </c>
-      <c r="B3">
-        <v>10100021</v>
-      </c>
-      <c r="C3">
-        <v>10100021</v>
-      </c>
-      <c r="D3">
-        <v>666</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>10100022</v>
+        <v>10100040</v>
       </c>
       <c r="B4">
-        <v>10100022</v>
+        <v>10100040</v>
       </c>
       <c r="C4">
-        <v>10100022</v>
+        <v>10100040</v>
       </c>
       <c r="D4">
         <v>666</v>
@@ -484,13 +490,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>10100012</v>
+        <v>10100030</v>
       </c>
       <c r="B5">
-        <v>10100012</v>
+        <v>10100030</v>
       </c>
       <c r="C5">
-        <v>10100012</v>
+        <v>10100030</v>
       </c>
       <c r="D5">
         <v>666</v>
@@ -501,13 +507,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>10100011</v>
+        <v>10100021</v>
       </c>
       <c r="B6">
-        <v>10100011</v>
+        <v>10100021</v>
       </c>
       <c r="C6">
-        <v>10100011</v>
+        <v>10100021</v>
       </c>
       <c r="D6">
         <v>666</v>
@@ -518,13 +524,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>10100040</v>
+        <v>10100022</v>
       </c>
       <c r="B7">
-        <v>10100040</v>
+        <v>10100022</v>
       </c>
       <c r="C7">
-        <v>10100040</v>
+        <v>10100022</v>
       </c>
       <c r="D7">
         <v>666</v>
@@ -535,13 +541,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>10100030</v>
+        <v>10100012</v>
       </c>
       <c r="B8">
-        <v>10100030</v>
+        <v>10100012</v>
       </c>
       <c r="C8">
-        <v>10100030</v>
+        <v>10100012</v>
       </c>
       <c r="D8">
         <v>666</v>
@@ -551,51 +557,51 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
+      <c r="A9">
+        <v>10100011</v>
+      </c>
+      <c r="B9">
+        <v>10100011</v>
+      </c>
+      <c r="C9">
+        <v>10100011</v>
+      </c>
+      <c r="D9">
+        <v>666</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>44</v>
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>1</v>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -33,28 +33,10 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>ACK-81980-2</t>
-  </si>
-  <si>
-    <t>639036819807</t>
-  </si>
-  <si>
-    <t>10099C</t>
-  </si>
-  <si>
     <t>OKT_OK_2542_D1</t>
   </si>
   <si>
     <t>768189916160</t>
-  </si>
-  <si>
-    <t>107308200294</t>
-  </si>
-  <si>
-    <t>10007C</t>
-  </si>
-  <si>
-    <t>107308203743</t>
   </si>
 </sst>
 </file>
@@ -405,7 +387,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,164 +429,28 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2">
+        <v>27003</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>27003</v>
       </c>
       <c r="E3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>10100040</v>
-      </c>
-      <c r="B4">
-        <v>10100040</v>
-      </c>
-      <c r="C4">
-        <v>10100040</v>
-      </c>
-      <c r="D4">
-        <v>666</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>10100030</v>
-      </c>
-      <c r="B5">
-        <v>10100030</v>
-      </c>
-      <c r="C5">
-        <v>10100030</v>
-      </c>
-      <c r="D5">
-        <v>666</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>10100021</v>
-      </c>
-      <c r="B6">
-        <v>10100021</v>
-      </c>
-      <c r="C6">
-        <v>10100021</v>
-      </c>
-      <c r="D6">
-        <v>666</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>10100022</v>
-      </c>
-      <c r="B7">
-        <v>10100022</v>
-      </c>
-      <c r="C7">
-        <v>10100022</v>
-      </c>
-      <c r="D7">
-        <v>666</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>10100012</v>
-      </c>
-      <c r="B8">
-        <v>10100012</v>
-      </c>
-      <c r="C8">
-        <v>10100012</v>
-      </c>
-      <c r="D8">
-        <v>666</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>10100011</v>
-      </c>
-      <c r="B9">
-        <v>10100011</v>
-      </c>
-      <c r="C9">
-        <v>10100011</v>
-      </c>
-      <c r="D9">
-        <v>666</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>60</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -27,9 +27,15 @@
     <t>SKU</t>
   </si>
   <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
+    <t>Batch</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -37,6 +43,15 @@
   </si>
   <si>
     <t>768189916160</t>
+  </si>
+  <si>
+    <t>Intadat Warehouse</t>
+  </si>
+  <si>
+    <t>BC278</t>
+  </si>
+  <si>
+    <t>BC299</t>
   </si>
 </sst>
 </file>
@@ -387,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,11 +413,13 @@
     <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,39 +435,57 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
         <v>27003</v>
       </c>
-      <c r="E2">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>27003</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
         <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>27003</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -39,19 +39,22 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>OKT_OK_2542_D1</t>
-  </si>
-  <si>
-    <t>768189916160</t>
+    <t>ACK-81980-2</t>
+  </si>
+  <si>
+    <t>639036819807</t>
+  </si>
+  <si>
+    <t>GD-62</t>
   </si>
   <si>
     <t>Intadat Warehouse</t>
   </si>
   <si>
-    <t>BC278</t>
-  </si>
-  <si>
-    <t>BC299</t>
+    <t>10099C</t>
+  </si>
+  <si>
+    <t>POC25600200</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,12 +413,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -450,42 +453,19 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>27003</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>27003</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -54,7 +54,49 @@
     <t>10099C</t>
   </si>
   <si>
+    <t>UPD-GLSILK-1</t>
+  </si>
+  <si>
+    <t>678634282286</t>
+  </si>
+  <si>
+    <t>GP500</t>
+  </si>
+  <si>
     <t>POC25600200</t>
+  </si>
+  <si>
+    <t>10001A</t>
+  </si>
+  <si>
+    <t>11588_CAL_BO-342-AB</t>
+  </si>
+  <si>
+    <t>020193342305</t>
+  </si>
+  <si>
+    <t>10097A</t>
+  </si>
+  <si>
+    <t>MOP52600</t>
+  </si>
+  <si>
+    <t>10096D</t>
+  </si>
+  <si>
+    <t>IPP2003</t>
+  </si>
+  <si>
+    <t>0021001</t>
+  </si>
+  <si>
+    <t>0034003</t>
+  </si>
+  <si>
+    <t>GP780</t>
+  </si>
+  <si>
+    <t>GP850</t>
   </si>
 </sst>
 </file>
@@ -405,7 +447,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,9 +455,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
@@ -461,11 +503,210 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F2"/>
       <c r="G2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>34013</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>34013</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -54,49 +54,7 @@
     <t>10099C</t>
   </si>
   <si>
-    <t>UPD-GLSILK-1</t>
-  </si>
-  <si>
-    <t>678634282286</t>
-  </si>
-  <si>
-    <t>GP500</t>
-  </si>
-  <si>
     <t>POC25600200</t>
-  </si>
-  <si>
-    <t>10001A</t>
-  </si>
-  <si>
-    <t>11588_CAL_BO-342-AB</t>
-  </si>
-  <si>
-    <t>020193342305</t>
-  </si>
-  <si>
-    <t>10097A</t>
-  </si>
-  <si>
-    <t>MOP52600</t>
-  </si>
-  <si>
-    <t>10096D</t>
-  </si>
-  <si>
-    <t>IPP2003</t>
-  </si>
-  <si>
-    <t>0021001</t>
-  </si>
-  <si>
-    <t>0034003</t>
-  </si>
-  <si>
-    <t>GP780</t>
-  </si>
-  <si>
-    <t>GP850</t>
   </si>
 </sst>
 </file>
@@ -447,7 +405,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,9 +413,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
@@ -503,210 +461,32 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2"/>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
       <c r="G2">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>34013</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3"/>
       <c r="G3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7">
         <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>34013</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11">
-        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -39,22 +39,16 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>ACK-81980-2</t>
-  </si>
-  <si>
-    <t>639036819807</t>
-  </si>
-  <si>
-    <t>GD-62</t>
+    <t>LG-5701-21</t>
+  </si>
+  <si>
+    <t>768189911219</t>
   </si>
   <si>
     <t>Intadat Warehouse</t>
   </si>
   <si>
-    <t>10099C</t>
-  </si>
-  <si>
-    <t>POC25600200</t>
+    <t>GO256200</t>
   </si>
 </sst>
 </file>
@@ -405,7 +399,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,12 +407,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -453,40 +447,19 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2">
+        <v>27001</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3">
-        <v>100</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -33,22 +33,49 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Batch</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>LG-5701-21</t>
-  </si>
-  <si>
-    <t>768189911219</t>
+    <t>UPD-GLSILK-1</t>
+  </si>
+  <si>
+    <t>678634282286</t>
   </si>
   <si>
     <t>Intadat Warehouse</t>
   </si>
   <si>
-    <t>GO256200</t>
+    <t>ACK-81980-2</t>
+  </si>
+  <si>
+    <t>639036819807</t>
+  </si>
+  <si>
+    <t>GD-62</t>
+  </si>
+  <si>
+    <t>10099C</t>
+  </si>
+  <si>
+    <t>10001A</t>
+  </si>
+  <si>
+    <t>11588_CAL_BO-342-AB</t>
+  </si>
+  <si>
+    <t>020193342305</t>
+  </si>
+  <si>
+    <t>10097A</t>
+  </si>
+  <si>
+    <t>10096D</t>
+  </si>
+  <si>
+    <t>0021001</t>
+  </si>
+  <si>
+    <t>0034003</t>
   </si>
 </sst>
 </file>
@@ -399,7 +426,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -407,16 +434,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,31 +461,145 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>34013</v>
+      </c>
+      <c r="F2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>27001</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>199</v>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -33,6 +33,9 @@
     <t>Location</t>
   </si>
   <si>
+    <t>Batch</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -45,6 +48,42 @@
     <t>Intadat Warehouse</t>
   </si>
   <si>
+    <t>10001A</t>
+  </si>
+  <si>
+    <t>MOP52600</t>
+  </si>
+  <si>
+    <t>LG-5701-21</t>
+  </si>
+  <si>
+    <t>768189911219</t>
+  </si>
+  <si>
+    <t>GO256200</t>
+  </si>
+  <si>
+    <t>0034003</t>
+  </si>
+  <si>
+    <t>GP780</t>
+  </si>
+  <si>
+    <t>GP850</t>
+  </si>
+  <si>
+    <t>GP500</t>
+  </si>
+  <si>
+    <t>11588_CAL_BO-342-AB</t>
+  </si>
+  <si>
+    <t>020193342305</t>
+  </si>
+  <si>
+    <t>10097A</t>
+  </si>
+  <si>
     <t>ACK-81980-2</t>
   </si>
   <si>
@@ -57,25 +96,16 @@
     <t>10099C</t>
   </si>
   <si>
-    <t>10001A</t>
-  </si>
-  <si>
-    <t>11588_CAL_BO-342-AB</t>
-  </si>
-  <si>
-    <t>020193342305</t>
-  </si>
-  <si>
-    <t>10097A</t>
-  </si>
-  <si>
-    <t>10096D</t>
-  </si>
-  <si>
-    <t>0021001</t>
-  </si>
-  <si>
-    <t>0034003</t>
+    <t>POC25600200</t>
+  </si>
+  <si>
+    <t>OKT_OK_3890_2</t>
+  </si>
+  <si>
+    <t>768189911967</t>
+  </si>
+  <si>
+    <t>GP2002201</t>
   </si>
 </sst>
 </file>
@@ -426,7 +456,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,10 +469,11 @@
     <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,145 +492,232 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>27001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
         <v>34013</v>
       </c>
-      <c r="F2">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>34013</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F9"/>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8">
-        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -33,79 +33,49 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Batch</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
+    <t>ACK-81980-2</t>
+  </si>
+  <si>
+    <t>639036819807</t>
+  </si>
+  <si>
+    <t>GD-62</t>
+  </si>
+  <si>
+    <t>Intadat Warehouse</t>
+  </si>
+  <si>
+    <t>10099C</t>
+  </si>
+  <si>
     <t>UPD-GLSILK-1</t>
   </si>
   <si>
     <t>678634282286</t>
   </si>
   <si>
-    <t>Intadat Warehouse</t>
-  </si>
-  <si>
     <t>10001A</t>
   </si>
   <si>
-    <t>MOP52600</t>
-  </si>
-  <si>
-    <t>LG-5701-21</t>
-  </si>
-  <si>
-    <t>768189911219</t>
-  </si>
-  <si>
-    <t>GO256200</t>
+    <t>11588_CAL_BO-342-AB</t>
+  </si>
+  <si>
+    <t>020193342305</t>
+  </si>
+  <si>
+    <t>10097A</t>
+  </si>
+  <si>
+    <t>10096D</t>
+  </si>
+  <si>
+    <t>0021001</t>
   </si>
   <si>
     <t>0034003</t>
-  </si>
-  <si>
-    <t>GP780</t>
-  </si>
-  <si>
-    <t>GP850</t>
-  </si>
-  <si>
-    <t>GP500</t>
-  </si>
-  <si>
-    <t>11588_CAL_BO-342-AB</t>
-  </si>
-  <si>
-    <t>020193342305</t>
-  </si>
-  <si>
-    <t>10097A</t>
-  </si>
-  <si>
-    <t>ACK-81980-2</t>
-  </si>
-  <si>
-    <t>639036819807</t>
-  </si>
-  <si>
-    <t>GD-62</t>
-  </si>
-  <si>
-    <t>10099C</t>
-  </si>
-  <si>
-    <t>POC25600200</t>
-  </si>
-  <si>
-    <t>OKT_OK_3890_2</t>
-  </si>
-  <si>
-    <t>768189911967</t>
-  </si>
-  <si>
-    <t>GP2002201</t>
   </si>
 </sst>
 </file>
@@ -456,7 +426,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,11 +439,10 @@
     <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,19 +461,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -512,212 +478,128 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>27001</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>34013</v>
+      </c>
+      <c r="F3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5">
-        <v>34013</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6">
-        <v>34013</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -33,6 +33,9 @@
     <t>Location</t>
   </si>
   <si>
+    <t>Batch</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -51,12 +54,18 @@
     <t>10099C</t>
   </si>
   <si>
+    <t>POC25600200</t>
+  </si>
+  <si>
     <t>UPD-GLSILK-1</t>
   </si>
   <si>
     <t>678634282286</t>
   </si>
   <si>
+    <t>GP500</t>
+  </si>
+  <si>
     <t>10001A</t>
   </si>
   <si>
@@ -69,13 +78,25 @@
     <t>10097A</t>
   </si>
   <si>
+    <t>MOP52600</t>
+  </si>
+  <si>
     <t>10096D</t>
   </si>
   <si>
+    <t>IPP2003</t>
+  </si>
+  <si>
     <t>0021001</t>
   </si>
   <si>
     <t>0034003</t>
+  </si>
+  <si>
+    <t>GP780</t>
+  </si>
+  <si>
+    <t>GP850</t>
   </si>
 </sst>
 </file>
@@ -426,7 +447,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,10 +460,11 @@
     <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,145 +483,230 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>34013</v>
       </c>
-      <c r="F3">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="F7"/>
+      <c r="G7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8">
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10">
         <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>34013</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -39,6 +39,54 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>UPD-GLSILK-1</t>
+  </si>
+  <si>
+    <t>678634282286</t>
+  </si>
+  <si>
+    <t>Intadat Warehouse</t>
+  </si>
+  <si>
+    <t>GP500</t>
+  </si>
+  <si>
+    <t>LG-5701-21</t>
+  </si>
+  <si>
+    <t>768189911219</t>
+  </si>
+  <si>
+    <t>GO256200</t>
+  </si>
+  <si>
+    <t>0034003</t>
+  </si>
+  <si>
+    <t>GP780</t>
+  </si>
+  <si>
+    <t>GP501</t>
+  </si>
+  <si>
+    <t>10001A</t>
+  </si>
+  <si>
+    <t>MOP52600</t>
+  </si>
+  <si>
+    <t>GP850</t>
+  </si>
+  <si>
+    <t>11588_CAL_BO-342-AB</t>
+  </si>
+  <si>
+    <t>020193342305</t>
+  </si>
+  <si>
+    <t>10097A</t>
+  </si>
+  <si>
     <t>ACK-81980-2</t>
   </si>
   <si>
@@ -48,55 +96,19 @@
     <t>GD-62</t>
   </si>
   <si>
-    <t>Intadat Warehouse</t>
-  </si>
-  <si>
     <t>10099C</t>
   </si>
   <si>
     <t>POC25600200</t>
   </si>
   <si>
-    <t>UPD-GLSILK-1</t>
-  </si>
-  <si>
-    <t>678634282286</t>
-  </si>
-  <si>
-    <t>GP500</t>
-  </si>
-  <si>
-    <t>10001A</t>
-  </si>
-  <si>
-    <t>11588_CAL_BO-342-AB</t>
-  </si>
-  <si>
-    <t>020193342305</t>
-  </si>
-  <si>
-    <t>10097A</t>
-  </si>
-  <si>
-    <t>MOP52600</t>
-  </si>
-  <si>
-    <t>10096D</t>
-  </si>
-  <si>
-    <t>IPP2003</t>
-  </si>
-  <si>
-    <t>0021001</t>
-  </si>
-  <si>
-    <t>0034003</t>
-  </si>
-  <si>
-    <t>GP780</t>
-  </si>
-  <si>
-    <t>GP850</t>
+    <t>OKT_OK_3890_2</t>
+  </si>
+  <si>
+    <t>768189911967</t>
+  </si>
+  <si>
+    <t>GP2002201</t>
   </si>
 </sst>
 </file>
@@ -495,104 +507,108 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>34013</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2">
-        <v>1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>27001</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>34013</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
       <c r="G3">
-        <v>119</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4"/>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
       <c r="G4">
-        <v>11</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5"/>
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>34013</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
       <c r="G5">
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6">
         <v>100</v>
@@ -606,107 +622,107 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7"/>
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>34013</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
       <c r="G7">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
         <v>22</v>
       </c>
+      <c r="F8"/>
       <c r="G8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9"/>
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
       <c r="G9">
-        <v>72</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F10"/>
       <c r="G10">
-        <v>350</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>34013</v>
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G11">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -39,25 +39,55 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>ACK-81980-2</t>
+  </si>
+  <si>
+    <t>639036819807</t>
+  </si>
+  <si>
+    <t>GD-62</t>
+  </si>
+  <si>
+    <t>Intadat Warehouse</t>
+  </si>
+  <si>
+    <t>10099C</t>
+  </si>
+  <si>
     <t>UPD-GLSILK-1</t>
   </si>
   <si>
     <t>678634282286</t>
   </si>
   <si>
-    <t>Intadat Warehouse</t>
+    <t>10001A</t>
+  </si>
+  <si>
+    <t>MOP52600</t>
   </si>
   <si>
     <t>GP500</t>
   </si>
   <si>
-    <t>LG-5701-21</t>
-  </si>
-  <si>
-    <t>768189911219</t>
-  </si>
-  <si>
-    <t>GO256200</t>
+    <t>POC25600200</t>
+  </si>
+  <si>
+    <t>11588_CAL_BO-342-AB</t>
+  </si>
+  <si>
+    <t>020193342305</t>
+  </si>
+  <si>
+    <t>10097A</t>
+  </si>
+  <si>
+    <t>10096D</t>
+  </si>
+  <si>
+    <t>IPP2003</t>
+  </si>
+  <si>
+    <t>0021001</t>
   </si>
   <si>
     <t>0034003</t>
@@ -66,49 +96,7 @@
     <t>GP780</t>
   </si>
   <si>
-    <t>GP501</t>
-  </si>
-  <si>
-    <t>10001A</t>
-  </si>
-  <si>
-    <t>MOP52600</t>
-  </si>
-  <si>
     <t>GP850</t>
-  </si>
-  <si>
-    <t>11588_CAL_BO-342-AB</t>
-  </si>
-  <si>
-    <t>020193342305</t>
-  </si>
-  <si>
-    <t>10097A</t>
-  </si>
-  <si>
-    <t>ACK-81980-2</t>
-  </si>
-  <si>
-    <t>639036819807</t>
-  </si>
-  <si>
-    <t>GD-62</t>
-  </si>
-  <si>
-    <t>10099C</t>
-  </si>
-  <si>
-    <t>POC25600200</t>
-  </si>
-  <si>
-    <t>OKT_OK_3890_2</t>
-  </si>
-  <si>
-    <t>768189911967</t>
-  </si>
-  <si>
-    <t>GP2002201</t>
   </si>
 </sst>
 </file>
@@ -507,56 +495,52 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>34013</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2"/>
       <c r="G2">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>27001</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3"/>
       <c r="G3">
-        <v>194</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -565,21 +549,21 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>230</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>34013</v>
@@ -599,130 +583,130 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
       <c r="G6">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>34013</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7"/>
       <c r="G7">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="F8"/>
       <c r="G8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
+      <c r="F9"/>
       <c r="G9">
-        <v>193</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10"/>
       <c r="G10">
-        <v>1</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>34013</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -33,12 +33,45 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Batch</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
+    <t>107308200112</t>
+  </si>
+  <si>
+    <t>GD-63</t>
+  </si>
+  <si>
+    <t>Intadat Warehouse</t>
+  </si>
+  <si>
+    <t>10001A</t>
+  </si>
+  <si>
+    <t>LG-5701-21</t>
+  </si>
+  <si>
+    <t>768189911219</t>
+  </si>
+  <si>
+    <t>UPD-GLSILK-1</t>
+  </si>
+  <si>
+    <t>678634282286</t>
+  </si>
+  <si>
+    <t>0034003</t>
+  </si>
+  <si>
+    <t>11588_CAL_BO-342-AB</t>
+  </si>
+  <si>
+    <t>020193342305</t>
+  </si>
+  <si>
+    <t>10097A</t>
+  </si>
+  <si>
     <t>ACK-81980-2</t>
   </si>
   <si>
@@ -48,55 +81,16 @@
     <t>GD-62</t>
   </si>
   <si>
-    <t>Intadat Warehouse</t>
-  </si>
-  <si>
     <t>10099C</t>
   </si>
   <si>
-    <t>UPD-GLSILK-1</t>
-  </si>
-  <si>
-    <t>678634282286</t>
-  </si>
-  <si>
-    <t>10001A</t>
-  </si>
-  <si>
-    <t>MOP52600</t>
-  </si>
-  <si>
-    <t>GP500</t>
-  </si>
-  <si>
-    <t>POC25600200</t>
-  </si>
-  <si>
-    <t>11588_CAL_BO-342-AB</t>
-  </si>
-  <si>
-    <t>020193342305</t>
-  </si>
-  <si>
-    <t>10097A</t>
+    <t>OKT_OK_3890_2</t>
+  </si>
+  <si>
+    <t>768189911967</t>
   </si>
   <si>
     <t>10096D</t>
-  </si>
-  <si>
-    <t>IPP2003</t>
-  </si>
-  <si>
-    <t>0021001</t>
-  </si>
-  <si>
-    <t>0034003</t>
-  </si>
-  <si>
-    <t>GP780</t>
-  </si>
-  <si>
-    <t>GP850</t>
   </si>
 </sst>
 </file>
@@ -447,7 +441,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,11 +454,10 @@
     <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,53 +476,48 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="F2"/>
-      <c r="G2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>27001</v>
+      </c>
+      <c r="F3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -540,19 +528,16 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>34013</v>
+      </c>
+      <c r="F4">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -563,42 +548,36 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>34013</v>
-      </c>
-      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="G5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -606,64 +585,59 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="F7"/>
-      <c r="G7">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -674,19 +648,16 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -697,16 +668,13 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>34013</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11">
-        <v>200</v>
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -33,6 +33,9 @@
     <t>Location</t>
   </si>
   <si>
+    <t>Batch</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -54,15 +57,33 @@
     <t>768189911219</t>
   </si>
   <si>
+    <t>GO256200</t>
+  </si>
+  <si>
     <t>UPD-GLSILK-1</t>
   </si>
   <si>
     <t>678634282286</t>
   </si>
   <si>
+    <t>GP501</t>
+  </si>
+  <si>
+    <t>GP500</t>
+  </si>
+  <si>
     <t>0034003</t>
   </si>
   <si>
+    <t>GP780</t>
+  </si>
+  <si>
+    <t>MOP52600</t>
+  </si>
+  <si>
+    <t>GP850</t>
+  </si>
+  <si>
     <t>11588_CAL_BO-342-AB</t>
   </si>
   <si>
@@ -84,13 +105,7 @@
     <t>10099C</t>
   </si>
   <si>
-    <t>OKT_OK_3890_2</t>
-  </si>
-  <si>
-    <t>768189911967</t>
-  </si>
-  <si>
-    <t>10096D</t>
+    <t>POC25600200</t>
   </si>
 </sst>
 </file>
@@ -441,7 +456,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,10 +469,11 @@
     <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,148 +492,170 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2">
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>27001</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>34013</v>
       </c>
-      <c r="F4">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>34013</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6">
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>34013</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="F7">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -628,53 +666,58 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9">
+        <v>24</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11">
         <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -27,7 +27,7 @@
     <t>SKU</t>
   </si>
   <si>
-    <t>Warehouse</t>
+    <t>Client</t>
   </si>
   <si>
     <t>Location</t>
@@ -39,73 +39,64 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>107308200112</t>
-  </si>
-  <si>
-    <t>GD-63</t>
-  </si>
-  <si>
-    <t>Intadat Warehouse</t>
+    <t>ACK-81980-2</t>
+  </si>
+  <si>
+    <t>639036819807</t>
+  </si>
+  <si>
+    <t>GD-62</t>
+  </si>
+  <si>
+    <t>Tio Tang</t>
+  </si>
+  <si>
+    <t>10099C</t>
+  </si>
+  <si>
+    <t>POC25600200</t>
+  </si>
+  <si>
+    <t>UPD-GLSILK-1</t>
+  </si>
+  <si>
+    <t>678634282286</t>
   </si>
   <si>
     <t>10001A</t>
   </si>
   <si>
-    <t>LG-5701-21</t>
-  </si>
-  <si>
-    <t>768189911219</t>
-  </si>
-  <si>
-    <t>GO256200</t>
-  </si>
-  <si>
-    <t>UPD-GLSILK-1</t>
-  </si>
-  <si>
-    <t>678634282286</t>
-  </si>
-  <si>
-    <t>GP501</t>
+    <t>MOP52600</t>
   </si>
   <si>
     <t>GP500</t>
   </si>
   <si>
+    <t>11588_CAL_BO-342-AB</t>
+  </si>
+  <si>
+    <t>020193342305</t>
+  </si>
+  <si>
+    <t>10097A</t>
+  </si>
+  <si>
+    <t>10096D</t>
+  </si>
+  <si>
+    <t>IPP2003</t>
+  </si>
+  <si>
+    <t>0021001</t>
+  </si>
+  <si>
     <t>0034003</t>
   </si>
   <si>
     <t>GP780</t>
   </si>
   <si>
-    <t>MOP52600</t>
-  </si>
-  <si>
     <t>GP850</t>
-  </si>
-  <si>
-    <t>11588_CAL_BO-342-AB</t>
-  </si>
-  <si>
-    <t>020193342305</t>
-  </si>
-  <si>
-    <t>10097A</t>
-  </si>
-  <si>
-    <t>ACK-81980-2</t>
-  </si>
-  <si>
-    <t>639036819807</t>
-  </si>
-  <si>
-    <t>GD-62</t>
-  </si>
-  <si>
-    <t>10099C</t>
-  </si>
-  <si>
-    <t>POC25600200</t>
   </si>
 </sst>
 </file>
@@ -467,7 +458,7 @@
     <col min="1" max="1" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -501,223 +492,221 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2"/>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
       <c r="G2">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>27001</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
+      <c r="F3"/>
       <c r="G3">
-        <v>199</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>34013</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4">
-        <v>1200</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>34013</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
+      <c r="F5"/>
       <c r="G5">
-        <v>118</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>34013</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>230</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
         <v>20</v>
       </c>
+      <c r="F7"/>
       <c r="G7">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>34013</v>
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
       </c>
       <c r="F9"/>
       <c r="G9">
-        <v>5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
       <c r="G10">
-        <v>193</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>34013</v>
+      </c>
+      <c r="F11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11"/>
       <c r="G11">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -39,6 +39,63 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>107308200112</t>
+  </si>
+  <si>
+    <t>GD-63</t>
+  </si>
+  <si>
+    <t>compassparts compassparts</t>
+  </si>
+  <si>
+    <t>10001A</t>
+  </si>
+  <si>
+    <t>LG-5701-21</t>
+  </si>
+  <si>
+    <t>768189911219</t>
+  </si>
+  <si>
+    <t>Tio Tang</t>
+  </si>
+  <si>
+    <t>GO256200</t>
+  </si>
+  <si>
+    <t>UPD-GLSILK-1</t>
+  </si>
+  <si>
+    <t>678634282286</t>
+  </si>
+  <si>
+    <t>GP501</t>
+  </si>
+  <si>
+    <t>GP500</t>
+  </si>
+  <si>
+    <t>0034003</t>
+  </si>
+  <si>
+    <t>GP780</t>
+  </si>
+  <si>
+    <t>MOP52600</t>
+  </si>
+  <si>
+    <t>GP850</t>
+  </si>
+  <si>
+    <t>11588_CAL_BO-342-AB</t>
+  </si>
+  <si>
+    <t>020193342305</t>
+  </si>
+  <si>
+    <t>10097A</t>
+  </si>
+  <si>
     <t>ACK-81980-2</t>
   </si>
   <si>
@@ -48,55 +105,10 @@
     <t>GD-62</t>
   </si>
   <si>
-    <t>Tio Tang</t>
-  </si>
-  <si>
     <t>10099C</t>
   </si>
   <si>
     <t>POC25600200</t>
-  </si>
-  <si>
-    <t>UPD-GLSILK-1</t>
-  </si>
-  <si>
-    <t>678634282286</t>
-  </si>
-  <si>
-    <t>10001A</t>
-  </si>
-  <si>
-    <t>MOP52600</t>
-  </si>
-  <si>
-    <t>GP500</t>
-  </si>
-  <si>
-    <t>11588_CAL_BO-342-AB</t>
-  </si>
-  <si>
-    <t>020193342305</t>
-  </si>
-  <si>
-    <t>10097A</t>
-  </si>
-  <si>
-    <t>10096D</t>
-  </si>
-  <si>
-    <t>IPP2003</t>
-  </si>
-  <si>
-    <t>0021001</t>
-  </si>
-  <si>
-    <t>0034003</t>
-  </si>
-  <si>
-    <t>GP780</t>
-  </si>
-  <si>
-    <t>GP850</t>
   </si>
 </sst>
 </file>
@@ -458,7 +470,7 @@
     <col min="1" max="1" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="30.563965" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -492,221 +504,223 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F2"/>
       <c r="G2">
-        <v>1</v>
+        <v>999</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3"/>
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>27001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
       <c r="G3">
-        <v>98</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>34013</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>99</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5"/>
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>34013</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
       <c r="G5">
-        <v>10</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>34013</v>
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>120</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7"/>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
       <c r="G7">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>34013</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9"/>
       <c r="G9">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G10">
-        <v>350</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="E11">
-        <v>34013</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
+      <c r="F11"/>
       <c r="G11">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -39,76 +39,64 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>107308200112</t>
-  </si>
-  <si>
-    <t>GD-63</t>
-  </si>
-  <si>
-    <t>compassparts compassparts</t>
+    <t>ACK-81980-2</t>
+  </si>
+  <si>
+    <t>639036819807</t>
+  </si>
+  <si>
+    <t>GD-62</t>
+  </si>
+  <si>
+    <t>Tio Tang</t>
+  </si>
+  <si>
+    <t>10099C</t>
+  </si>
+  <si>
+    <t>POC25600200</t>
+  </si>
+  <si>
+    <t>UPD-GLSILK-1</t>
+  </si>
+  <si>
+    <t>678634282286</t>
   </si>
   <si>
     <t>10001A</t>
   </si>
   <si>
-    <t>LG-5701-21</t>
-  </si>
-  <si>
-    <t>768189911219</t>
-  </si>
-  <si>
-    <t>Tio Tang</t>
-  </si>
-  <si>
-    <t>GO256200</t>
-  </si>
-  <si>
-    <t>UPD-GLSILK-1</t>
-  </si>
-  <si>
-    <t>678634282286</t>
-  </si>
-  <si>
-    <t>GP501</t>
+    <t>MOP52600</t>
   </si>
   <si>
     <t>GP500</t>
   </si>
   <si>
+    <t>11588_CAL_BO-342-AB</t>
+  </si>
+  <si>
+    <t>020193342305</t>
+  </si>
+  <si>
+    <t>10097A</t>
+  </si>
+  <si>
+    <t>10096D</t>
+  </si>
+  <si>
+    <t>IPP2003</t>
+  </si>
+  <si>
+    <t>0021001</t>
+  </si>
+  <si>
     <t>0034003</t>
   </si>
   <si>
     <t>GP780</t>
   </si>
   <si>
-    <t>MOP52600</t>
-  </si>
-  <si>
     <t>GP850</t>
-  </si>
-  <si>
-    <t>11588_CAL_BO-342-AB</t>
-  </si>
-  <si>
-    <t>020193342305</t>
-  </si>
-  <si>
-    <t>10097A</t>
-  </si>
-  <si>
-    <t>ACK-81980-2</t>
-  </si>
-  <si>
-    <t>639036819807</t>
-  </si>
-  <si>
-    <t>GD-62</t>
-  </si>
-  <si>
-    <t>10099C</t>
-  </si>
-  <si>
-    <t>POC25600200</t>
   </si>
 </sst>
 </file>
@@ -470,7 +458,7 @@
     <col min="1" max="1" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="30.563965" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -504,223 +492,221 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2"/>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
       <c r="G2">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>27001</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F3"/>
       <c r="G3">
-        <v>199</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>34013</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
+      <c r="F4"/>
       <c r="G4">
-        <v>1200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>34013</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
       <c r="G5">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>34013</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>230</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F7"/>
       <c r="G7">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>34013</v>
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
       </c>
       <c r="F9"/>
       <c r="G9">
-        <v>5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G10">
-        <v>193</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>34013</v>
+      </c>
+      <c r="F11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11"/>
       <c r="G11">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -39,6 +39,63 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>107308200112</t>
+  </si>
+  <si>
+    <t>GD-63</t>
+  </si>
+  <si>
+    <t>compassparts compassparts</t>
+  </si>
+  <si>
+    <t>10001A</t>
+  </si>
+  <si>
+    <t>LG-5701-21</t>
+  </si>
+  <si>
+    <t>768189911219</t>
+  </si>
+  <si>
+    <t>Tio Tang</t>
+  </si>
+  <si>
+    <t>GO256200</t>
+  </si>
+  <si>
+    <t>UPD-GLSILK-1</t>
+  </si>
+  <si>
+    <t>678634282286</t>
+  </si>
+  <si>
+    <t>GP501</t>
+  </si>
+  <si>
+    <t>GP500</t>
+  </si>
+  <si>
+    <t>0034003</t>
+  </si>
+  <si>
+    <t>GP780</t>
+  </si>
+  <si>
+    <t>MOP52600</t>
+  </si>
+  <si>
+    <t>GP850</t>
+  </si>
+  <si>
+    <t>11588_CAL_BO-342-AB</t>
+  </si>
+  <si>
+    <t>020193342305</t>
+  </si>
+  <si>
+    <t>10097A</t>
+  </si>
+  <si>
     <t>ACK-81980-2</t>
   </si>
   <si>
@@ -48,55 +105,10 @@
     <t>GD-62</t>
   </si>
   <si>
-    <t>Tio Tang</t>
-  </si>
-  <si>
     <t>10099C</t>
   </si>
   <si>
     <t>POC25600200</t>
-  </si>
-  <si>
-    <t>UPD-GLSILK-1</t>
-  </si>
-  <si>
-    <t>678634282286</t>
-  </si>
-  <si>
-    <t>10001A</t>
-  </si>
-  <si>
-    <t>MOP52600</t>
-  </si>
-  <si>
-    <t>GP500</t>
-  </si>
-  <si>
-    <t>11588_CAL_BO-342-AB</t>
-  </si>
-  <si>
-    <t>020193342305</t>
-  </si>
-  <si>
-    <t>10097A</t>
-  </si>
-  <si>
-    <t>10096D</t>
-  </si>
-  <si>
-    <t>IPP2003</t>
-  </si>
-  <si>
-    <t>0021001</t>
-  </si>
-  <si>
-    <t>0034003</t>
-  </si>
-  <si>
-    <t>GP780</t>
-  </si>
-  <si>
-    <t>GP850</t>
   </si>
 </sst>
 </file>
@@ -458,7 +470,7 @@
     <col min="1" max="1" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="30.563965" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -492,221 +504,223 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F2"/>
       <c r="G2">
-        <v>1</v>
+        <v>999</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3"/>
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>27001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
       <c r="G3">
-        <v>98</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4"/>
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>34013</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
       <c r="G4">
-        <v>10</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>34013</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>34013</v>
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>120</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7"/>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
       <c r="G7">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>34013</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9"/>
       <c r="G9">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G10">
-        <v>350</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="E11">
-        <v>34013</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
+      <c r="F11"/>
       <c r="G11">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -39,76 +39,58 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>107308200112</t>
-  </si>
-  <si>
-    <t>GD-63</t>
+    <t>UPD-GLSILK-1</t>
+  </si>
+  <si>
+    <t>678634282286</t>
   </si>
   <si>
     <t>compassparts compassparts</t>
   </si>
   <si>
+    <t>GP500</t>
+  </si>
+  <si>
     <t>10001A</t>
   </si>
   <si>
-    <t>LG-5701-21</t>
-  </si>
-  <si>
-    <t>768189911219</t>
+    <t>MOP52600</t>
+  </si>
+  <si>
+    <t>ACK-81980-2</t>
+  </si>
+  <si>
+    <t>639036819807</t>
+  </si>
+  <si>
+    <t>GD-62</t>
   </si>
   <si>
     <t>Tio Tang</t>
   </si>
   <si>
-    <t>GO256200</t>
-  </si>
-  <si>
-    <t>UPD-GLSILK-1</t>
-  </si>
-  <si>
-    <t>678634282286</t>
-  </si>
-  <si>
-    <t>GP501</t>
-  </si>
-  <si>
-    <t>GP500</t>
-  </si>
-  <si>
-    <t>0034003</t>
-  </si>
-  <si>
-    <t>GP780</t>
-  </si>
-  <si>
-    <t>MOP52600</t>
-  </si>
-  <si>
-    <t>GP850</t>
-  </si>
-  <si>
-    <t>11588_CAL_BO-342-AB</t>
-  </si>
-  <si>
-    <t>020193342305</t>
-  </si>
-  <si>
-    <t>10097A</t>
-  </si>
-  <si>
-    <t>ACK-81980-2</t>
-  </si>
-  <si>
-    <t>639036819807</t>
-  </si>
-  <si>
-    <t>GD-62</t>
-  </si>
-  <si>
     <t>10099C</t>
   </si>
   <si>
     <t>POC25600200</t>
+  </si>
+  <si>
+    <t>OKT_OK_3890_2</t>
+  </si>
+  <si>
+    <t>768189911967</t>
+  </si>
+  <si>
+    <t>GP2002201</t>
+  </si>
+  <si>
+    <t>10096D</t>
+  </si>
+  <si>
+    <t>IPP2003</t>
+  </si>
+  <si>
+    <t>0021001</t>
   </si>
 </sst>
 </file>
@@ -459,7 +441,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,9 +449,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="30.563965" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
@@ -504,223 +486,177 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>34013</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2"/>
       <c r="G2">
-        <v>999</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>27001</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
       <c r="G3">
-        <v>199</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>34013</v>
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>1200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>34013</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5"/>
       <c r="G5">
-        <v>118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>230</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F7"/>
       <c r="G7">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>34013</v>
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
       </c>
       <c r="F9"/>
       <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -39,6 +39,24 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>ACK-81980-2</t>
+  </si>
+  <si>
+    <t>639036819807</t>
+  </si>
+  <si>
+    <t>GD-62</t>
+  </si>
+  <si>
+    <t>Tio Tang</t>
+  </si>
+  <si>
+    <t>10099C</t>
+  </si>
+  <si>
+    <t>POC25600200</t>
+  </si>
+  <si>
     <t>UPD-GLSILK-1</t>
   </si>
   <si>
@@ -55,24 +73,6 @@
   </si>
   <si>
     <t>MOP52600</t>
-  </si>
-  <si>
-    <t>ACK-81980-2</t>
-  </si>
-  <si>
-    <t>639036819807</t>
-  </si>
-  <si>
-    <t>GD-62</t>
-  </si>
-  <si>
-    <t>Tio Tang</t>
-  </si>
-  <si>
-    <t>10099C</t>
-  </si>
-  <si>
-    <t>POC25600200</t>
   </si>
   <si>
     <t>OKT_OK_3890_2</t>
@@ -489,42 +489,42 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>34013</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>118</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>34013</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -535,10 +535,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -547,24 +547,24 @@
         <v>18</v>
       </c>
       <c r="G4">
-        <v>193</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5"/>
       <c r="G5">
@@ -582,10 +582,10 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -596,19 +596,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F7"/>
       <c r="G7">
@@ -617,16 +617,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -640,16 +640,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Batch</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>10099C</t>
   </si>
   <si>
-    <t>POC25600200</t>
-  </si>
-  <si>
     <t>UPD-GLSILK-1</t>
   </si>
   <si>
@@ -66,28 +60,16 @@
     <t>compassparts compassparts</t>
   </si>
   <si>
-    <t>GP500</t>
-  </si>
-  <si>
     <t>10001A</t>
   </si>
   <si>
-    <t>MOP52600</t>
-  </si>
-  <si>
     <t>OKT_OK_3890_2</t>
   </si>
   <si>
     <t>768189911967</t>
   </si>
   <si>
-    <t>GP2002201</t>
-  </si>
-  <si>
     <t>10096D</t>
-  </si>
-  <si>
-    <t>IPP2003</t>
   </si>
   <si>
     <t>0021001</t>
@@ -441,7 +423,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +436,10 @@
     <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="30.563965" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,185 +458,144 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
       <c r="E3">
         <v>34013</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="G3">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7"/>
-      <c r="G7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
       <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="F8">
         <v>72</v>
       </c>
     </row>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -33,9 +33,18 @@
     <t>Location</t>
   </si>
   <si>
+    <t>Batch</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
+    <t>Tio Tang</t>
+  </si>
+  <si>
+    <t>0053003</t>
+  </si>
+  <si>
     <t>ACK-81980-2</t>
   </si>
   <si>
@@ -45,12 +54,12 @@
     <t>GD-62</t>
   </si>
   <si>
-    <t>Tio Tang</t>
-  </si>
-  <si>
     <t>10099C</t>
   </si>
   <si>
+    <t>POC25600200</t>
+  </si>
+  <si>
     <t>UPD-GLSILK-1</t>
   </si>
   <si>
@@ -60,16 +69,28 @@
     <t>compassparts compassparts</t>
   </si>
   <si>
+    <t>GP500</t>
+  </si>
+  <si>
     <t>10001A</t>
   </si>
   <si>
+    <t>MOP52600</t>
+  </si>
+  <si>
     <t>OKT_OK_3890_2</t>
   </si>
   <si>
     <t>768189911967</t>
   </si>
   <si>
+    <t>GP2002201</t>
+  </si>
+  <si>
     <t>10096D</t>
+  </si>
+  <si>
+    <t>IPP2003</t>
   </si>
   <si>
     <t>0021001</t>
@@ -423,7 +444,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +457,11 @@
     <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="30.563965" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,144 +480,227 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>37724</v>
+      </c>
+      <c r="B2">
+        <v>37724</v>
+      </c>
+      <c r="C2">
+        <v>37724</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2"/>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>37724</v>
+      </c>
+      <c r="B3">
+        <v>37724</v>
+      </c>
+      <c r="C3">
+        <v>37724</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>54001</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
         <v>34013</v>
       </c>
-      <c r="F3">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11">
         <v>72</v>
       </c>
     </row>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -39,19 +39,16 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>ACK-81980-2</t>
+  </si>
+  <si>
+    <t>639036819807</t>
+  </si>
+  <si>
+    <t>GD-62</t>
+  </si>
+  <si>
     <t>Tio Tang</t>
-  </si>
-  <si>
-    <t>0053003</t>
-  </si>
-  <si>
-    <t>ACK-81980-2</t>
-  </si>
-  <si>
-    <t>639036819807</t>
-  </si>
-  <si>
-    <t>GD-62</t>
   </si>
   <si>
     <t>10099C</t>
@@ -444,7 +441,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,222 +482,180 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2">
-        <v>37724</v>
-      </c>
-      <c r="B2">
-        <v>37724</v>
-      </c>
-      <c r="C2">
-        <v>37724</v>
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2"/>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
       <c r="G2">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3">
-        <v>37724</v>
-      </c>
-      <c r="B3">
-        <v>37724</v>
-      </c>
-      <c r="C3">
-        <v>37724</v>
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>54001</v>
-      </c>
-      <c r="F3"/>
+        <v>34013</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
       <c r="G3">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>34013</v>
-      </c>
-      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
+      <c r="F5"/>
       <c r="G5">
-        <v>120</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7"/>
       <c r="G7">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F9"/>
       <c r="G9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11">
         <v>72</v>
       </c>
     </row>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t>Name</t>
   </si>
@@ -39,58 +39,292 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>ACK-81980-2</t>
-  </si>
-  <si>
-    <t>639036819807</t>
-  </si>
-  <si>
-    <t>GD-62</t>
-  </si>
-  <si>
-    <t>Tio Tang</t>
-  </si>
-  <si>
-    <t>10099C</t>
-  </si>
-  <si>
-    <t>POC25600200</t>
-  </si>
-  <si>
-    <t>UPD-GLSILK-1</t>
-  </si>
-  <si>
-    <t>678634282286</t>
-  </si>
-  <si>
-    <t>compassparts compassparts</t>
-  </si>
-  <si>
-    <t>GP500</t>
-  </si>
-  <si>
-    <t>10001A</t>
-  </si>
-  <si>
-    <t>MOP52600</t>
-  </si>
-  <si>
-    <t>OKT_OK_3890_2</t>
-  </si>
-  <si>
-    <t>768189911967</t>
-  </si>
-  <si>
-    <t>GP2002201</t>
-  </si>
-  <si>
-    <t>10096D</t>
-  </si>
-  <si>
-    <t>IPP2003</t>
-  </si>
-  <si>
-    <t>0021001</t>
+    <t>TESPOWIRESTORAGE</t>
+  </si>
+  <si>
+    <t>x001r8xhev</t>
+  </si>
+  <si>
+    <t>CB06KB</t>
+  </si>
+  <si>
+    <t>NINGBO BEILUN FLOWER TRADING CO., LTD</t>
+  </si>
+  <si>
+    <t>P1-01-2</t>
+  </si>
+  <si>
+    <t>TDRU23621946/6/18</t>
+  </si>
+  <si>
+    <t>TESPO PET PLAYPEN</t>
+  </si>
+  <si>
+    <t>X001R8YVF5</t>
+  </si>
+  <si>
+    <t>CB06PB</t>
+  </si>
+  <si>
+    <t>ANIMALPLAYPEN</t>
+  </si>
+  <si>
+    <t>x001luh525</t>
+  </si>
+  <si>
+    <t>CB11PA</t>
+  </si>
+  <si>
+    <t>x001gao5zf</t>
+  </si>
+  <si>
+    <t>CB05PB</t>
+  </si>
+  <si>
+    <t>BETTER GARDEN 3 TIER STEEL</t>
+  </si>
+  <si>
+    <t>b0784q3714</t>
+  </si>
+  <si>
+    <t>BG-SHELF0018</t>
+  </si>
+  <si>
+    <t>Hao Xu</t>
+  </si>
+  <si>
+    <t>P8-03-1</t>
+  </si>
+  <si>
+    <t>YMLU8789671-6-4-18</t>
+  </si>
+  <si>
+    <t>BETTER GARDEN STEEL GARD DOOR</t>
+  </si>
+  <si>
+    <t>B077RYYX66</t>
+  </si>
+  <si>
+    <t>BG-ARCH-0014</t>
+  </si>
+  <si>
+    <t>P8-05-2</t>
+  </si>
+  <si>
+    <t>P8-04-1</t>
+  </si>
+  <si>
+    <t>ONEGO5 TIER STEEL VERSATILE</t>
+  </si>
+  <si>
+    <t>b01m0d760c</t>
+  </si>
+  <si>
+    <t>OG-SHELF004</t>
+  </si>
+  <si>
+    <t>P8-01-1</t>
+  </si>
+  <si>
+    <t>BETTER GARDEN GOTHIC STEEL DOOR</t>
+  </si>
+  <si>
+    <t>B077S2CNF4</t>
+  </si>
+  <si>
+    <t>BG-ARCH-0008C</t>
+  </si>
+  <si>
+    <t>P8-08-2</t>
+  </si>
+  <si>
+    <t>P8-05-1</t>
+  </si>
+  <si>
+    <t>P8-02-1</t>
+  </si>
+  <si>
+    <t>GO3TIERSTEEL</t>
+  </si>
+  <si>
+    <t>x001nc0h1r</t>
+  </si>
+  <si>
+    <t>OG-SHELF006N</t>
+  </si>
+  <si>
+    <t>P8-06-1</t>
+  </si>
+  <si>
+    <t>B0784NZNRD</t>
+  </si>
+  <si>
+    <t>BG-ARCH-0040</t>
+  </si>
+  <si>
+    <t>P8-07-1</t>
+  </si>
+  <si>
+    <t>2 PACK GARDENOBELISK</t>
+  </si>
+  <si>
+    <t>b077ww887s</t>
+  </si>
+  <si>
+    <t>OG-OBLSK-0025</t>
+  </si>
+  <si>
+    <t>ONEGOOGARCH004</t>
+  </si>
+  <si>
+    <t>b01lxfsd6w</t>
+  </si>
+  <si>
+    <t>OG-ARCH-004 (0012)</t>
+  </si>
+  <si>
+    <t>ONE GO 4 TIER</t>
+  </si>
+  <si>
+    <t>b01m0oug4k</t>
+  </si>
+  <si>
+    <t>OG-SHELF003</t>
+  </si>
+  <si>
+    <t>1GOSTELLGARDENARCH</t>
+  </si>
+  <si>
+    <t>B01LZ2BZMR</t>
+  </si>
+  <si>
+    <t>OG-ARCH-002</t>
+  </si>
+  <si>
+    <t>ONEGOSTEEL GARDEN ARCH</t>
+  </si>
+  <si>
+    <t>b01m0d74ra</t>
+  </si>
+  <si>
+    <t>OG-ARCH-001</t>
+  </si>
+  <si>
+    <t>2PACK GARDEN OBELISK</t>
+  </si>
+  <si>
+    <t>B0785DJ7VQ</t>
+  </si>
+  <si>
+    <t>OG-OBLSK-0020AB</t>
+  </si>
+  <si>
+    <t>ONEGO STEEL ARCH 0020</t>
+  </si>
+  <si>
+    <t>b06y3gtf5t</t>
+  </si>
+  <si>
+    <t>OG-ARCH-0020</t>
+  </si>
+  <si>
+    <t>ONE GO STEEL GARDEN</t>
+  </si>
+  <si>
+    <t>b01m1o1147</t>
+  </si>
+  <si>
+    <t>OG-ARCH010</t>
+  </si>
+  <si>
+    <t>1GO GARDEN STEEL ARCH</t>
+  </si>
+  <si>
+    <t>bo77rfqgwg</t>
+  </si>
+  <si>
+    <t>OG-ARCH0026</t>
+  </si>
+  <si>
+    <t>2PACK GARDEN OBLASIK</t>
+  </si>
+  <si>
+    <t>B077WLVGLQ</t>
+  </si>
+  <si>
+    <t>OG-OBLSK-0027</t>
+  </si>
+  <si>
+    <t>P6-01-1</t>
+  </si>
+  <si>
+    <t>P1-02-1</t>
+  </si>
+  <si>
+    <t>BODYBOSS</t>
+  </si>
+  <si>
+    <t>PKG2-GREEN</t>
+  </si>
+  <si>
+    <t>BodyBoss Inc</t>
+  </si>
+  <si>
+    <t>WHSU2109701-6/6/2018</t>
+  </si>
+  <si>
+    <t>858-10-SET BLACK</t>
+  </si>
+  <si>
+    <t>858-10-SET</t>
+  </si>
+  <si>
+    <t>Cavalet  Inc</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>858-43-SET LIME</t>
+  </si>
+  <si>
+    <t>858-43-SET</t>
+  </si>
+  <si>
+    <t>858-59-SET LILA/PURPLE</t>
+  </si>
+  <si>
+    <t>858-59-SET</t>
+  </si>
+  <si>
+    <t>858-75-SET INDIGO BLUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">858-75-SET </t>
+  </si>
+  <si>
+    <t>858-75-SET</t>
+  </si>
+  <si>
+    <t>758-10-SET BLACK</t>
+  </si>
+  <si>
+    <t>758-10-SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P4 </t>
+  </si>
+  <si>
+    <t>758-16-SET SILVER</t>
+  </si>
+  <si>
+    <t>758-16-SET</t>
+  </si>
+  <si>
+    <t>758-46-SET SEA BLUE</t>
+  </si>
+  <si>
+    <t>758-46-SET</t>
   </si>
 </sst>
 </file>
@@ -441,7 +675,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,12 +683,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="30.563965" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="37.705078" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="44.703369" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -501,7 +735,7 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -512,39 +746,39 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>34013</v>
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -552,111 +786,837 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5"/>
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
       <c r="G5">
-        <v>1</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7"/>
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
       <c r="G7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9"/>
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
       <c r="G9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
         <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -39,6 +39,18 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>UPD-GLSILK-1</t>
+  </si>
+  <si>
+    <t>678634282286</t>
+  </si>
+  <si>
+    <t>compassparts compassparts</t>
+  </si>
+  <si>
+    <t>GP500</t>
+  </si>
+  <si>
     <t>ACK-81980-2</t>
   </si>
   <si>
@@ -55,18 +67,6 @@
   </si>
   <si>
     <t>POC25600200</t>
-  </si>
-  <si>
-    <t>UPD-GLSILK-1</t>
-  </si>
-  <si>
-    <t>678634282286</t>
-  </si>
-  <si>
-    <t>compassparts compassparts</t>
-  </si>
-  <si>
-    <t>GP500</t>
   </si>
   <si>
     <t>10001A</t>
@@ -489,56 +489,56 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2">
+        <v>34013</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2">
-        <v>199</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3">
-        <v>34013</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3">
-        <v>120</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -552,16 +552,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -596,16 +596,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -617,16 +617,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -640,16 +640,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -39,58 +39,322 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>UPD-GLSILK-1</t>
-  </si>
-  <si>
-    <t>678634282286</t>
-  </si>
-  <si>
-    <t>compassparts compassparts</t>
-  </si>
-  <si>
-    <t>GP500</t>
-  </si>
-  <si>
-    <t>ACK-81980-2</t>
-  </si>
-  <si>
-    <t>639036819807</t>
-  </si>
-  <si>
-    <t>GD-62</t>
-  </si>
-  <si>
-    <t>Tio Tang</t>
-  </si>
-  <si>
-    <t>10099C</t>
-  </si>
-  <si>
-    <t>POC25600200</t>
-  </si>
-  <si>
-    <t>10001A</t>
-  </si>
-  <si>
-    <t>MOP52600</t>
-  </si>
-  <si>
-    <t>OKT_OK_3890_2</t>
-  </si>
-  <si>
-    <t>768189911967</t>
-  </si>
-  <si>
-    <t>GP2002201</t>
-  </si>
-  <si>
-    <t>10096D</t>
-  </si>
-  <si>
-    <t>IPP2003</t>
-  </si>
-  <si>
-    <t>0021001</t>
+    <t>FILTERS</t>
+  </si>
+  <si>
+    <t>X001CGG5UL</t>
+  </si>
+  <si>
+    <t>CF3-2PK</t>
+  </si>
+  <si>
+    <t>crystala crystala</t>
+  </si>
+  <si>
+    <t>P1-01-2</t>
+  </si>
+  <si>
+    <t>WHSU21978056/8/18</t>
+  </si>
+  <si>
+    <t>x0014zazt7</t>
+  </si>
+  <si>
+    <t>CF1-1PK</t>
+  </si>
+  <si>
+    <t>FILTER</t>
+  </si>
+  <si>
+    <t>x0018fcttr</t>
+  </si>
+  <si>
+    <t>CF1-2PK</t>
+  </si>
+  <si>
+    <t>x0017gf5vv</t>
+  </si>
+  <si>
+    <t>x0019fgb2r</t>
+  </si>
+  <si>
+    <t>BETTER GARDEN STEEL GARD DOOR</t>
+  </si>
+  <si>
+    <t>B077RYYX66</t>
+  </si>
+  <si>
+    <t>BG-ARCH-0014</t>
+  </si>
+  <si>
+    <t>Hao Xu</t>
+  </si>
+  <si>
+    <t>P8-04-1</t>
+  </si>
+  <si>
+    <t>YMLU8789671-6-4-18</t>
+  </si>
+  <si>
+    <t>B0784NZNRD</t>
+  </si>
+  <si>
+    <t>BG-ARCH-0040</t>
+  </si>
+  <si>
+    <t>P8-07-1</t>
+  </si>
+  <si>
+    <t>BETTER GARDEN GOTHIC STEEL DOOR</t>
+  </si>
+  <si>
+    <t>B077S2CNF4</t>
+  </si>
+  <si>
+    <t>BG-ARCH-0008C</t>
+  </si>
+  <si>
+    <t>P8-08-2</t>
+  </si>
+  <si>
+    <t>P8-05-1</t>
+  </si>
+  <si>
+    <t>ELECTRIC OUTBOARD MOTOR</t>
+  </si>
+  <si>
+    <t>X001H0XYKV</t>
+  </si>
+  <si>
+    <t>U-BC00</t>
+  </si>
+  <si>
+    <t>Jianxing Aeroteck Precision Co., LTD</t>
+  </si>
+  <si>
+    <t>5/31/18</t>
+  </si>
+  <si>
+    <t>ENERSYST AIR DIVIDE ASSY</t>
+  </si>
+  <si>
+    <t>9910 FLOOR</t>
+  </si>
+  <si>
+    <t>OI004689</t>
+  </si>
+  <si>
+    <t>BELL CRANK ASSY</t>
+  </si>
+  <si>
+    <t>TUBE FV ELEMENT MOUNTING</t>
+  </si>
+  <si>
+    <t>TUBE BUSHING ASSY RE DV ELMT</t>
+  </si>
+  <si>
+    <t>ANIMALPLAYPEN</t>
+  </si>
+  <si>
+    <t>x001gao5zf</t>
+  </si>
+  <si>
+    <t>CB05PB</t>
+  </si>
+  <si>
+    <t>LITTLE FLACON CO LTD</t>
+  </si>
+  <si>
+    <t>TDRU23621946/6/18</t>
+  </si>
+  <si>
+    <t>TESPOWIRESTORAGE</t>
+  </si>
+  <si>
+    <t>x001r8xhev</t>
+  </si>
+  <si>
+    <t>CB06KB</t>
+  </si>
+  <si>
+    <t>TESPO PET PLAYPEN</t>
+  </si>
+  <si>
+    <t>X001R8YVF5</t>
+  </si>
+  <si>
+    <t>CB06PB</t>
+  </si>
+  <si>
+    <t>x001luh525</t>
+  </si>
+  <si>
+    <t>CB11PA</t>
+  </si>
+  <si>
+    <t>BETTER GARDEN 3 TIER STEEL</t>
+  </si>
+  <si>
+    <t>b0784q3714</t>
+  </si>
+  <si>
+    <t>BG-SHELF0018</t>
+  </si>
+  <si>
+    <t>P8-03-1</t>
+  </si>
+  <si>
+    <t>P8-05-2</t>
+  </si>
+  <si>
+    <t>ONEGO5 TIER STEEL VERSATILE</t>
+  </si>
+  <si>
+    <t>b01m0d760c</t>
+  </si>
+  <si>
+    <t>OG-SHELF004</t>
+  </si>
+  <si>
+    <t>P8-01-1</t>
+  </si>
+  <si>
+    <t>P8-02-1</t>
+  </si>
+  <si>
+    <t>GO3TIERSTEEL</t>
+  </si>
+  <si>
+    <t>x001nc0h1r</t>
+  </si>
+  <si>
+    <t>OG-SHELF006N</t>
+  </si>
+  <si>
+    <t>P8-06-1</t>
+  </si>
+  <si>
+    <t>2 PACK GARDENOBELISK</t>
+  </si>
+  <si>
+    <t>b077ww887s</t>
+  </si>
+  <si>
+    <t>OG-OBLSK-0025</t>
+  </si>
+  <si>
+    <t>2PACK GARDEN OBLASIK</t>
+  </si>
+  <si>
+    <t>B077WLVGLQ</t>
+  </si>
+  <si>
+    <t>OG-OBLSK-0027</t>
+  </si>
+  <si>
+    <t>ONEGOOGARCH004</t>
+  </si>
+  <si>
+    <t>b01lxfsd6w</t>
+  </si>
+  <si>
+    <t>OG-ARCH-004 (0012)</t>
+  </si>
+  <si>
+    <t>ONE GO 4 TIER</t>
+  </si>
+  <si>
+    <t>b01m0oug4k</t>
+  </si>
+  <si>
+    <t>OG-SHELF003</t>
+  </si>
+  <si>
+    <t>1GOSTELLGARDENARCH</t>
+  </si>
+  <si>
+    <t>B01LZ2BZMR</t>
+  </si>
+  <si>
+    <t>OG-ARCH-002</t>
+  </si>
+  <si>
+    <t>ONEGOSTEEL GARDEN ARCH</t>
+  </si>
+  <si>
+    <t>b01m0d74ra</t>
+  </si>
+  <si>
+    <t>OG-ARCH-001</t>
+  </si>
+  <si>
+    <t>2PACK GARDEN OBELISK</t>
+  </si>
+  <si>
+    <t>B0785DJ7VQ</t>
+  </si>
+  <si>
+    <t>OG-OBLSK-0020AB</t>
+  </si>
+  <si>
+    <t>ONEGO STEEL ARCH 0020</t>
+  </si>
+  <si>
+    <t>b06y3gtf5t</t>
+  </si>
+  <si>
+    <t>OG-ARCH-0020</t>
+  </si>
+  <si>
+    <t>ONE GO STEEL GARDEN</t>
+  </si>
+  <si>
+    <t>b01m1o1147</t>
+  </si>
+  <si>
+    <t>OG-ARCH010</t>
+  </si>
+  <si>
+    <t>1GO GARDEN STEEL ARCH</t>
+  </si>
+  <si>
+    <t>bo77rfqgwg</t>
+  </si>
+  <si>
+    <t>OG-ARCH0026</t>
+  </si>
+  <si>
+    <t>P6-01-1</t>
+  </si>
+  <si>
+    <t>BODYBOSS</t>
+  </si>
+  <si>
+    <t>PKG2-GREEN</t>
+  </si>
+  <si>
+    <t>BodyBoss Inc</t>
+  </si>
+  <si>
+    <t>WHSU2109701-6/6/2018</t>
+  </si>
+  <si>
+    <t>P1-02-1</t>
+  </si>
+  <si>
+    <t>858-75-SET INDIGO BLUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">858-75-SET </t>
+  </si>
+  <si>
+    <t>858-75-SET</t>
+  </si>
+  <si>
+    <t>Cavalet  Inc</t>
+  </si>
+  <si>
+    <t>P5</t>
   </si>
 </sst>
 </file>
@@ -441,7 +705,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,12 +713,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="30.563965" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="37.705078" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="43.560791" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -489,150 +753,154 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>34013</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5"/>
       <c r="G5">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7"/>
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
       <c r="G7">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -640,23 +908,757 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9"/>
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>9005621</v>
+      </c>
+      <c r="C12">
+        <v>9005621</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>4522772</v>
+      </c>
+      <c r="C13">
+        <v>4522772</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>8102992</v>
+      </c>
+      <c r="C14">
+        <v>8102992</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>8103246</v>
+      </c>
+      <c r="C15">
+        <v>8103246</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
         <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -39,61 +39,322 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>m07308200294</t>
-  </si>
-  <si>
-    <t>Tio Tang</t>
-  </si>
-  <si>
-    <t>GOP2520569</t>
-  </si>
-  <si>
-    <t>107308200112</t>
-  </si>
-  <si>
-    <t>GD-63</t>
-  </si>
-  <si>
-    <t>compassparts compassparts</t>
-  </si>
-  <si>
-    <t>UPD-GLSILK-1</t>
-  </si>
-  <si>
-    <t>678634282286</t>
-  </si>
-  <si>
-    <t>GP500</t>
-  </si>
-  <si>
-    <t>ACK-81980-2</t>
-  </si>
-  <si>
-    <t>639036819807</t>
-  </si>
-  <si>
-    <t>GD-62</t>
-  </si>
-  <si>
-    <t>10099C</t>
-  </si>
-  <si>
-    <t>POC25600200</t>
-  </si>
-  <si>
-    <t>10001A</t>
-  </si>
-  <si>
-    <t>MOP52600</t>
-  </si>
-  <si>
-    <t>OKT_OK_3890_2</t>
-  </si>
-  <si>
-    <t>768189911967</t>
-  </si>
-  <si>
-    <t>GP2002201</t>
+    <t>FILTERS</t>
+  </si>
+  <si>
+    <t>X001CGG5UL</t>
+  </si>
+  <si>
+    <t>CF3-2PK</t>
+  </si>
+  <si>
+    <t>crystala crystala</t>
+  </si>
+  <si>
+    <t>P1-01-2</t>
+  </si>
+  <si>
+    <t>WHSU21978056/8/18</t>
+  </si>
+  <si>
+    <t>x0014zazt7</t>
+  </si>
+  <si>
+    <t>CF1-1PK</t>
+  </si>
+  <si>
+    <t>FILTER</t>
+  </si>
+  <si>
+    <t>x0018fcttr</t>
+  </si>
+  <si>
+    <t>CF1-2PK</t>
+  </si>
+  <si>
+    <t>x0017gf5vv</t>
+  </si>
+  <si>
+    <t>x0019fgb2r</t>
+  </si>
+  <si>
+    <t>BETTER GARDEN STEEL GARD DOOR</t>
+  </si>
+  <si>
+    <t>B077RYYX66</t>
+  </si>
+  <si>
+    <t>BG-ARCH-0014</t>
+  </si>
+  <si>
+    <t>Hao Xu</t>
+  </si>
+  <si>
+    <t>P8-04-1</t>
+  </si>
+  <si>
+    <t>YMLU8789671-6-4-18</t>
+  </si>
+  <si>
+    <t>B0784NZNRD</t>
+  </si>
+  <si>
+    <t>BG-ARCH-0040</t>
+  </si>
+  <si>
+    <t>P8-07-1</t>
+  </si>
+  <si>
+    <t>BETTER GARDEN GOTHIC STEEL DOOR</t>
+  </si>
+  <si>
+    <t>B077S2CNF4</t>
+  </si>
+  <si>
+    <t>BG-ARCH-0008C</t>
+  </si>
+  <si>
+    <t>P8-08-2</t>
+  </si>
+  <si>
+    <t>P8-05-1</t>
+  </si>
+  <si>
+    <t>ELECTRIC OUTBOARD MOTOR</t>
+  </si>
+  <si>
+    <t>X001H0XYKV</t>
+  </si>
+  <si>
+    <t>U-BC00</t>
+  </si>
+  <si>
+    <t>Jianxing Aeroteck Precision Co., LTD</t>
+  </si>
+  <si>
+    <t>5/31/18</t>
+  </si>
+  <si>
+    <t>ENERSYST AIR DIVIDE ASSY</t>
+  </si>
+  <si>
+    <t>9910 FLOOR</t>
+  </si>
+  <si>
+    <t>OI004689</t>
+  </si>
+  <si>
+    <t>BELL CRANK ASSY</t>
+  </si>
+  <si>
+    <t>TUBE FV ELEMENT MOUNTING</t>
+  </si>
+  <si>
+    <t>TUBE BUSHING ASSY RE DV ELMT</t>
+  </si>
+  <si>
+    <t>ANIMALPLAYPEN</t>
+  </si>
+  <si>
+    <t>x001gao5zf</t>
+  </si>
+  <si>
+    <t>CB05PB</t>
+  </si>
+  <si>
+    <t>LITTLE FLACON CO LTD</t>
+  </si>
+  <si>
+    <t>TDRU23621946/6/18</t>
+  </si>
+  <si>
+    <t>TESPOWIRESTORAGE</t>
+  </si>
+  <si>
+    <t>x001r8xhev</t>
+  </si>
+  <si>
+    <t>CB06KB</t>
+  </si>
+  <si>
+    <t>TESPO PET PLAYPEN</t>
+  </si>
+  <si>
+    <t>X001R8YVF5</t>
+  </si>
+  <si>
+    <t>CB06PB</t>
+  </si>
+  <si>
+    <t>x001luh525</t>
+  </si>
+  <si>
+    <t>CB11PA</t>
+  </si>
+  <si>
+    <t>BETTER GARDEN 3 TIER STEEL</t>
+  </si>
+  <si>
+    <t>b0784q3714</t>
+  </si>
+  <si>
+    <t>BG-SHELF0018</t>
+  </si>
+  <si>
+    <t>P8-03-1</t>
+  </si>
+  <si>
+    <t>P8-05-2</t>
+  </si>
+  <si>
+    <t>ONEGO5 TIER STEEL VERSATILE</t>
+  </si>
+  <si>
+    <t>b01m0d760c</t>
+  </si>
+  <si>
+    <t>OG-SHELF004</t>
+  </si>
+  <si>
+    <t>P8-01-1</t>
+  </si>
+  <si>
+    <t>P8-02-1</t>
+  </si>
+  <si>
+    <t>GO3TIERSTEEL</t>
+  </si>
+  <si>
+    <t>x001nc0h1r</t>
+  </si>
+  <si>
+    <t>OG-SHELF006N</t>
+  </si>
+  <si>
+    <t>P8-06-1</t>
+  </si>
+  <si>
+    <t>2 PACK GARDENOBELISK</t>
+  </si>
+  <si>
+    <t>b077ww887s</t>
+  </si>
+  <si>
+    <t>OG-OBLSK-0025</t>
+  </si>
+  <si>
+    <t>2PACK GARDEN OBLASIK</t>
+  </si>
+  <si>
+    <t>B077WLVGLQ</t>
+  </si>
+  <si>
+    <t>OG-OBLSK-0027</t>
+  </si>
+  <si>
+    <t>ONEGOOGARCH004</t>
+  </si>
+  <si>
+    <t>b01lxfsd6w</t>
+  </si>
+  <si>
+    <t>OG-ARCH-004 (0012)</t>
+  </si>
+  <si>
+    <t>ONE GO 4 TIER</t>
+  </si>
+  <si>
+    <t>b01m0oug4k</t>
+  </si>
+  <si>
+    <t>OG-SHELF003</t>
+  </si>
+  <si>
+    <t>1GOSTELLGARDENARCH</t>
+  </si>
+  <si>
+    <t>B01LZ2BZMR</t>
+  </si>
+  <si>
+    <t>OG-ARCH-002</t>
+  </si>
+  <si>
+    <t>ONEGOSTEEL GARDEN ARCH</t>
+  </si>
+  <si>
+    <t>b01m0d74ra</t>
+  </si>
+  <si>
+    <t>OG-ARCH-001</t>
+  </si>
+  <si>
+    <t>2PACK GARDEN OBELISK</t>
+  </si>
+  <si>
+    <t>B0785DJ7VQ</t>
+  </si>
+  <si>
+    <t>OG-OBLSK-0020AB</t>
+  </si>
+  <si>
+    <t>ONEGO STEEL ARCH 0020</t>
+  </si>
+  <si>
+    <t>b06y3gtf5t</t>
+  </si>
+  <si>
+    <t>OG-ARCH-0020</t>
+  </si>
+  <si>
+    <t>ONE GO STEEL GARDEN</t>
+  </si>
+  <si>
+    <t>b01m1o1147</t>
+  </si>
+  <si>
+    <t>OG-ARCH010</t>
+  </si>
+  <si>
+    <t>1GO GARDEN STEEL ARCH</t>
+  </si>
+  <si>
+    <t>bo77rfqgwg</t>
+  </si>
+  <si>
+    <t>OG-ARCH0026</t>
+  </si>
+  <si>
+    <t>P6-01-1</t>
+  </si>
+  <si>
+    <t>BODYBOSS</t>
+  </si>
+  <si>
+    <t>PKG2-GREEN</t>
+  </si>
+  <si>
+    <t>BodyBoss Inc</t>
+  </si>
+  <si>
+    <t>WHSU2109701-6/6/2018</t>
+  </si>
+  <si>
+    <t>P1-02-1</t>
+  </si>
+  <si>
+    <t>858-75-SET INDIGO BLUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">858-75-SET </t>
+  </si>
+  <si>
+    <t>858-75-SET</t>
+  </si>
+  <si>
+    <t>Cavalet  Inc</t>
+  </si>
+  <si>
+    <t>P5</t>
   </si>
 </sst>
 </file>
@@ -444,7 +705,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,12 +713,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="30.563965" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="37.705078" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="43.560791" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -489,177 +750,915 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>3543</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>5001</v>
-      </c>
-      <c r="F3"/>
       <c r="G3">
-        <v>20</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="E4">
-        <v>34013</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
       <c r="G4">
-        <v>119</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>199</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
       <c r="G6">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7"/>
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>9005621</v>
+      </c>
+      <c r="C12">
+        <v>9005621</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>4522772</v>
+      </c>
+      <c r="C13">
+        <v>4522772</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>8102992</v>
+      </c>
+      <c r="C14">
+        <v>8102992</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>8103246</v>
+      </c>
+      <c r="C15">
+        <v>8103246</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="F9"/>
-      <c r="G9">
-        <v>11</v>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -39,22 +39,70 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>C-0000-M</t>
-  </si>
-  <si>
-    <t>C0000M</t>
-  </si>
-  <si>
-    <t>Huang Xiaojian</t>
-  </si>
-  <si>
-    <t>10001A</t>
-  </si>
-  <si>
-    <t>C-0000-S</t>
-  </si>
-  <si>
-    <t>C0000S</t>
+    <t>ENERSYST AIR DIVIDE ASSY</t>
+  </si>
+  <si>
+    <t>Jianxing Aeroteck Precision Co., LTD (NEW)</t>
+  </si>
+  <si>
+    <t>9910 FLOOR</t>
+  </si>
+  <si>
+    <t>OI004689</t>
+  </si>
+  <si>
+    <t>BELL CRANK ASSY</t>
+  </si>
+  <si>
+    <t>BETTER GARDEN GOTHIC STEEL DOOR</t>
+  </si>
+  <si>
+    <t>B077S2CNF4</t>
+  </si>
+  <si>
+    <t>BG-ARCH-0008C</t>
+  </si>
+  <si>
+    <t>XU HAO (NEW)</t>
+  </si>
+  <si>
+    <t>P8-08-2</t>
+  </si>
+  <si>
+    <t>YMLU8789671-6-4-18</t>
+  </si>
+  <si>
+    <t>BETTER GARDEN STEEL GARD DOOR</t>
+  </si>
+  <si>
+    <t>B077RYYX66</t>
+  </si>
+  <si>
+    <t>BG-ARCH-0014</t>
+  </si>
+  <si>
+    <t>P8-05-1</t>
+  </si>
+  <si>
+    <t>blanket</t>
+  </si>
+  <si>
+    <t>X001PSOX2D</t>
+  </si>
+  <si>
+    <t>softcare</t>
+  </si>
+  <si>
+    <t>RMA+LIHAO SOFTCARE</t>
+  </si>
+  <si>
+    <t>P1-01-2</t>
+  </si>
+  <si>
+    <t>6/27/18</t>
+  </si>
+  <si>
+    <t>6/22/18</t>
   </si>
 </sst>
 </file>
@@ -405,7 +453,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,12 +461,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="37.705078" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="50.559082" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -449,63 +497,138 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>9005621</v>
+      </c>
+      <c r="C2">
+        <v>9005621</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2"/>
       <c r="G2">
-        <v>500</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
+      <c r="B3">
+        <v>4522772</v>
+      </c>
+      <c r="C3">
+        <v>4522772</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>111</v>
-      </c>
-      <c r="F3"/>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
       <c r="G3">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4"/>
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
       <c r="G4">
-        <v>100</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6">
+        <v>-485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>-474</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -39,70 +39,28 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>ENERSYST AIR DIVIDE ASSY</t>
-  </si>
-  <si>
-    <t>Jianxing Aeroteck Precision Co., LTD (NEW)</t>
-  </si>
-  <si>
-    <t>9910 FLOOR</t>
-  </si>
-  <si>
-    <t>OI004689</t>
-  </si>
-  <si>
-    <t>BELL CRANK ASSY</t>
-  </si>
-  <si>
-    <t>BETTER GARDEN GOTHIC STEEL DOOR</t>
-  </si>
-  <si>
-    <t>B077S2CNF4</t>
-  </si>
-  <si>
-    <t>BG-ARCH-0008C</t>
-  </si>
-  <si>
-    <t>XU HAO (NEW)</t>
-  </si>
-  <si>
-    <t>P8-08-2</t>
-  </si>
-  <si>
-    <t>YMLU8789671-6-4-18</t>
-  </si>
-  <si>
-    <t>BETTER GARDEN STEEL GARD DOOR</t>
-  </si>
-  <si>
-    <t>B077RYYX66</t>
-  </si>
-  <si>
-    <t>BG-ARCH-0014</t>
-  </si>
-  <si>
-    <t>P8-05-1</t>
-  </si>
-  <si>
-    <t>blanket</t>
-  </si>
-  <si>
-    <t>X001PSOX2D</t>
-  </si>
-  <si>
-    <t>softcare</t>
-  </si>
-  <si>
-    <t>RMA+LIHAO SOFTCARE</t>
-  </si>
-  <si>
-    <t>P1-01-2</t>
-  </si>
-  <si>
-    <t>6/27/18</t>
-  </si>
-  <si>
-    <t>6/22/18</t>
+    <t>C-0000-XL</t>
+  </si>
+  <si>
+    <t>C0000XL</t>
+  </si>
+  <si>
+    <t>Huang Xiaojian</t>
+  </si>
+  <si>
+    <t>10001A</t>
+  </si>
+  <si>
+    <t>C-0000-S</t>
+  </si>
+  <si>
+    <t>C0000S</t>
+  </si>
+  <si>
+    <t>C-0000-M</t>
+  </si>
+  <si>
+    <t>C0000M</t>
   </si>
 </sst>
 </file>
@@ -453,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +419,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="37.705078" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="50.559082" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -497,138 +455,84 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>9005621</v>
-      </c>
-      <c r="C2">
-        <v>9005621</v>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="F2"/>
       <c r="G2">
-        <v>91</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>4522772</v>
-      </c>
-      <c r="C3">
-        <v>4522772</v>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E3">
+        <v>111</v>
+      </c>
+      <c r="F3"/>
       <c r="G3">
-        <v>100</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F4"/>
       <c r="G4">
-        <v>146</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F5"/>
       <c r="G5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6">
-        <v>-485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7">
-        <v>-474</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -39,28 +39,16 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>C-0000-XL</t>
-  </si>
-  <si>
-    <t>C0000XL</t>
+    <t>C-0000-S</t>
+  </si>
+  <si>
+    <t>C0000S</t>
   </si>
   <si>
     <t>Huang Xiaojian</t>
   </si>
   <si>
     <t>10001A</t>
-  </si>
-  <si>
-    <t>C-0000-S</t>
-  </si>
-  <si>
-    <t>C0000S</t>
-  </si>
-  <si>
-    <t>C-0000-M</t>
-  </si>
-  <si>
-    <t>C0000M</t>
   </si>
 </sst>
 </file>
@@ -411,7 +399,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,9 +407,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
@@ -464,74 +452,32 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="E2">
+        <v>111</v>
       </c>
       <c r="F2"/>
       <c r="G2">
-        <v>2000</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>111</v>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
       <c r="F3"/>
       <c r="G3">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5">
         <v>99</v>
       </c>
     </row>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -48,7 +48,10 @@
     <t>Huang Xiaojian</t>
   </si>
   <si>
-    <t>10001A</t>
+    <t>C-0000-M</t>
+  </si>
+  <si>
+    <t>C0000M</t>
   </si>
 </sst>
 </file>
@@ -457,28 +460,28 @@
       </c>
       <c r="F2"/>
       <c r="G2">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
+      <c r="E3">
+        <v>34012</v>
       </c>
       <c r="F3"/>
       <c r="G3">
-        <v>99</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Huang Xiaojian</t>
+  </si>
+  <si>
+    <t>10005A</t>
   </si>
   <si>
     <t>C-0000-M</t>
@@ -402,7 +405,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,22 +468,43 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>34012</v>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
       <c r="F3"/>
       <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>34012</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4">
         <v>2000</v>
       </c>
     </row>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -37,24 +37,6 @@
   </si>
   <si>
     <t>Quantity</t>
-  </si>
-  <si>
-    <t>C-0000-S</t>
-  </si>
-  <si>
-    <t>C0000S</t>
-  </si>
-  <si>
-    <t>Huang Xiaojian</t>
-  </si>
-  <si>
-    <t>10005A</t>
-  </si>
-  <si>
-    <t>C-0000-M</t>
-  </si>
-  <si>
-    <t>C0000M</t>
   </si>
 </sst>
 </file>
@@ -405,7 +387,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,10 +395,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.712158" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -443,69 +425,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>111</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>34012</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4">
-        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -37,6 +37,45 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>C-0000-L</t>
+  </si>
+  <si>
+    <t>C0000L</t>
+  </si>
+  <si>
+    <t>Huang Xiaojian</t>
+  </si>
+  <si>
+    <t>10001A</t>
+  </si>
+  <si>
+    <t>C-0000-2XL</t>
+  </si>
+  <si>
+    <t>C00002XL</t>
+  </si>
+  <si>
+    <t>10005A</t>
+  </si>
+  <si>
+    <t>C-0000-M</t>
+  </si>
+  <si>
+    <t>C0000M</t>
+  </si>
+  <si>
+    <t>1093A</t>
+  </si>
+  <si>
+    <t>C-0000-S</t>
+  </si>
+  <si>
+    <t>C0000S</t>
+  </si>
+  <si>
+    <t>10097A</t>
   </si>
 </sst>
 </file>
@@ -387,7 +426,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,10 +434,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -425,6 +464,174 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>111</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>34012</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -33,49 +33,28 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Batch</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>C-0000-L</t>
-  </si>
-  <si>
-    <t>C0000L</t>
+    <t>C-0000-M</t>
+  </si>
+  <si>
+    <t>C0000M</t>
   </si>
   <si>
     <t>Huang Xiaojian</t>
   </si>
   <si>
+    <t>C-0000-S</t>
+  </si>
+  <si>
+    <t>C0000S</t>
+  </si>
+  <si>
     <t>10001A</t>
   </si>
   <si>
-    <t>C-0000-2XL</t>
-  </si>
-  <si>
-    <t>C00002XL</t>
-  </si>
-  <si>
     <t>10005A</t>
-  </si>
-  <si>
-    <t>C-0000-M</t>
-  </si>
-  <si>
-    <t>C0000M</t>
-  </si>
-  <si>
-    <t>1093A</t>
-  </si>
-  <si>
-    <t>C-0000-S</t>
-  </si>
-  <si>
-    <t>C0000S</t>
-  </si>
-  <si>
-    <t>10097A</t>
   </si>
 </sst>
 </file>
@@ -426,7 +405,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,16 +413,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,176 +440,85 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>34012</v>
+      </c>
+      <c r="F2">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="F2"/>
-      <c r="G2">
-        <v>20</v>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>111</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>111</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>34012</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9">
-        <v>1</v>
+      <c r="F5">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Batch</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -405,7 +408,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,10 +421,11 @@
     <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,84 +444,91 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>34012</v>
       </c>
-      <c r="F2">
+      <c r="F2"/>
+      <c r="G2">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
       <c r="E4">
         <v>111</v>
       </c>
-      <c r="F4">
+      <c r="F4"/>
+      <c r="G4">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5">
         <v>200</v>
       </c>
     </row>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -37,27 +37,6 @@
   </si>
   <si>
     <t>Quantity</t>
-  </si>
-  <si>
-    <t>C-0000-M</t>
-  </si>
-  <si>
-    <t>C0000M</t>
-  </si>
-  <si>
-    <t>Huang Xiaojian</t>
-  </si>
-  <si>
-    <t>C-0000-S</t>
-  </si>
-  <si>
-    <t>C0000S</t>
-  </si>
-  <si>
-    <t>10001A</t>
-  </si>
-  <si>
-    <t>10005A</t>
   </si>
 </sst>
 </file>
@@ -408,7 +387,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,10 +395,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.712158" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -446,90 +425,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>34012</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>111</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5">
-        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>NRC-91</t>
+  </si>
+  <si>
+    <t>X001D08AXL</t>
+  </si>
+  <si>
+    <t>Arron Dong</t>
+  </si>
+  <si>
+    <t>10097A</t>
   </si>
 </sst>
 </file>
@@ -387,7 +399,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,10 +407,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -425,6 +437,27 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="F2"/>
       <c r="G2">
-        <v>2000</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -39,16 +39,16 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>NRC-91</t>
-  </si>
-  <si>
-    <t>X001D08AXL</t>
+    <t>RC-02</t>
   </si>
   <si>
     <t>Arron Dong</t>
   </si>
   <si>
-    <t>10097A</t>
+    <t>d00000000</t>
+  </si>
+  <si>
+    <t>BC2500</t>
   </si>
 </sst>
 </file>
@@ -407,12 +407,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -444,20 +444,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2"/>
       <c r="G2">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -37,6 +37,30 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>RC-03</t>
+  </si>
+  <si>
+    <t>X000Y005XJ</t>
+  </si>
+  <si>
+    <t>Huang Xiaojian</t>
+  </si>
+  <si>
+    <t>10097A</t>
+  </si>
+  <si>
+    <t>NRC-91</t>
+  </si>
+  <si>
+    <t>X001D08AXL</t>
+  </si>
+  <si>
+    <t>Arron Dong</t>
+  </si>
+  <si>
+    <t>10001A</t>
   </si>
 </sst>
 </file>
@@ -387,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,10 +419,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -425,6 +449,48 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -48,6 +48,9 @@
     <t>Huang Xiaojian</t>
   </si>
   <si>
+    <t>10001A</t>
+  </si>
+  <si>
     <t>10097A</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
   </si>
   <si>
     <t>Arron Dong</t>
-  </si>
-  <si>
-    <t>10001A</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,27 +469,48 @@
       </c>
       <c r="F2"/>
       <c r="G2">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
       <c r="F3"/>
       <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4">
         <v>1</v>
       </c>
     </row>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -39,28 +39,28 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>RC-03</t>
-  </si>
-  <si>
-    <t>X000Y005XJ</t>
-  </si>
-  <si>
-    <t>Huang Xiaojian</t>
-  </si>
-  <si>
-    <t>10001A</t>
-  </si>
-  <si>
-    <t>10097A</t>
-  </si>
-  <si>
-    <t>NRC-91</t>
-  </si>
-  <si>
-    <t>X001D08AXL</t>
-  </si>
-  <si>
-    <t>Arron Dong</t>
+    <t>OA2</t>
+  </si>
+  <si>
+    <t>Todd Zhou</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>OA6</t>
+  </si>
+  <si>
+    <t>OA13</t>
+  </si>
+  <si>
+    <t>OA4</t>
+  </si>
+  <si>
+    <t>OA3</t>
+  </si>
+  <si>
+    <t>OA9</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,10 +419,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -456,62 +456,125 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
       <c r="F2"/>
       <c r="G2">
-        <v>1000</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3"/>
       <c r="G3">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4"/>
       <c r="G4">
-        <v>1</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -39,19 +39,22 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>OA13</t>
+  </si>
+  <si>
+    <t>Todd Zhou</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
     <t>OA2</t>
   </si>
   <si>
-    <t>Todd Zhou</t>
-  </si>
-  <si>
-    <t>A0</t>
-  </si>
-  <si>
-    <t>OA6</t>
-  </si>
-  <si>
-    <t>OA13</t>
+    <t>23D7WB</t>
+  </si>
+  <si>
+    <t>Vee Trading</t>
   </si>
   <si>
     <t>OA4</t>
@@ -419,10 +422,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -469,7 +472,7 @@
       </c>
       <c r="F2"/>
       <c r="G2">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -490,7 +493,7 @@
       </c>
       <c r="F3"/>
       <c r="G3">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -504,25 +507,25 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4"/>
       <c r="G4">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -532,18 +535,18 @@
       </c>
       <c r="F5"/>
       <c r="G5">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -558,13 +561,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -46,24 +46,6 @@
   </si>
   <si>
     <t>A0</t>
-  </si>
-  <si>
-    <t>OA2</t>
-  </si>
-  <si>
-    <t>23D7WB</t>
-  </si>
-  <si>
-    <t>Vee Trading</t>
-  </si>
-  <si>
-    <t>OA4</t>
-  </si>
-  <si>
-    <t>OA3</t>
-  </si>
-  <si>
-    <t>OA9</t>
   </si>
 </sst>
 </file>
@@ -414,7 +396,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,10 +404,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -472,112 +454,7 @@
       </c>
       <c r="F2"/>
       <c r="G2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7">
-        <v>51</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -39,13 +39,28 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>OA13</t>
+    <t>OA6</t>
   </si>
   <si>
     <t>Todd Zhou</t>
   </si>
   <si>
     <t>A0</t>
+  </si>
+  <si>
+    <t>23D7WB</t>
+  </si>
+  <si>
+    <t>Vee Trading</t>
+  </si>
+  <si>
+    <t>OA4</t>
+  </si>
+  <si>
+    <t>OA3</t>
+  </si>
+  <si>
+    <t>OA9</t>
   </si>
 </sst>
 </file>
@@ -396,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,10 +419,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -454,7 +469,91 @@
       </c>
       <c r="F2"/>
       <c r="G2">
-        <v>999</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -39,15 +39,18 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>OA9</t>
+  </si>
+  <si>
+    <t>Todd Zhou</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
     <t>OA6</t>
   </si>
   <si>
-    <t>Todd Zhou</t>
-  </si>
-  <si>
-    <t>A0</t>
-  </si>
-  <si>
     <t>23D7WB</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
   </si>
   <si>
     <t>OA3</t>
-  </si>
-  <si>
-    <t>OA9</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
       </c>
       <c r="F2"/>
       <c r="G2">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -483,35 +483,35 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3"/>
       <c r="G3">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4"/>
       <c r="G4">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -532,7 +532,7 @@
       </c>
       <c r="F5"/>
       <c r="G5">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -553,7 +553,7 @@
       </c>
       <c r="F6"/>
       <c r="G6">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -39,22 +39,22 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>23D7WB</t>
+  </si>
+  <si>
+    <t>Vee Trading</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
     <t>OA9</t>
   </si>
   <si>
     <t>Todd Zhou</t>
   </si>
   <si>
-    <t>A0</t>
-  </si>
-  <si>
     <t>OA6</t>
-  </si>
-  <si>
-    <t>23D7WB</t>
-  </si>
-  <si>
-    <t>Vee Trading</t>
   </si>
   <si>
     <t>OA4</t>
@@ -469,7 +469,7 @@
       </c>
       <c r="F2"/>
       <c r="G2">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -483,35 +483,35 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3"/>
       <c r="G3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4"/>
       <c r="G4">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -525,7 +525,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -546,7 +546,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="F2"/>
       <c r="G2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -39,10 +39,10 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>23D7WB</t>
-  </si>
-  <si>
-    <t>Vee Trading</t>
+    <t>OA2</t>
+  </si>
+  <si>
+    <t>Todd Zhou</t>
   </si>
   <si>
     <t>A0</t>
@@ -51,16 +51,31 @@
     <t>OA9</t>
   </si>
   <si>
-    <t>Todd Zhou</t>
-  </si>
-  <si>
-    <t>OA6</t>
+    <t>OA13-1</t>
+  </si>
+  <si>
+    <t>OA13-2</t>
+  </si>
+  <si>
+    <t>OA3</t>
   </si>
   <si>
     <t>OA4</t>
   </si>
   <si>
-    <t>OA3</t>
+    <t>4891028707844</t>
+  </si>
+  <si>
+    <t>bag-1</t>
+  </si>
+  <si>
+    <t>Fancy Lin</t>
+  </si>
+  <si>
+    <t>4891028707837</t>
+  </si>
+  <si>
+    <t>bag-4</t>
   </si>
 </sst>
 </file>
@@ -411,7 +426,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,10 +434,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -469,7 +484,7 @@
       </c>
       <c r="F2"/>
       <c r="G2">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -483,77 +498,140 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3"/>
       <c r="G3">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4"/>
       <c r="G4">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5"/>
       <c r="G5">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6"/>
       <c r="G6">
-        <v>40</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -39,43 +39,28 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>OA2</t>
+    <t>23D7WB</t>
+  </si>
+  <si>
+    <t>Vee Trading</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>OA9</t>
   </si>
   <si>
     <t>Todd Zhou</t>
   </si>
   <si>
-    <t>A0</t>
-  </si>
-  <si>
-    <t>OA9</t>
-  </si>
-  <si>
-    <t>OA13-1</t>
-  </si>
-  <si>
-    <t>OA13-2</t>
+    <t>OA6</t>
+  </si>
+  <si>
+    <t>OA4</t>
   </si>
   <si>
     <t>OA3</t>
-  </si>
-  <si>
-    <t>OA4</t>
-  </si>
-  <si>
-    <t>4891028707844</t>
-  </si>
-  <si>
-    <t>bag-1</t>
-  </si>
-  <si>
-    <t>Fancy Lin</t>
-  </si>
-  <si>
-    <t>4891028707837</t>
-  </si>
-  <si>
-    <t>bag-4</t>
   </si>
 </sst>
 </file>
@@ -426,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +419,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -484,7 +469,7 @@
       </c>
       <c r="F2"/>
       <c r="G2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -498,140 +483,77 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3"/>
       <c r="G3">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4"/>
       <c r="G4">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5"/>
       <c r="G5">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6"/>
       <c r="G6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9">
-        <v>250</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -39,10 +39,10 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>23D7WB</t>
-  </si>
-  <si>
-    <t>Vee Trading</t>
+    <t>OA2</t>
+  </si>
+  <si>
+    <t>Todd Zhou</t>
   </si>
   <si>
     <t>A0</t>
@@ -51,16 +51,31 @@
     <t>OA9</t>
   </si>
   <si>
-    <t>Todd Zhou</t>
-  </si>
-  <si>
-    <t>OA6</t>
+    <t>OA13-1</t>
+  </si>
+  <si>
+    <t>OA13-2</t>
+  </si>
+  <si>
+    <t>OA3</t>
   </si>
   <si>
     <t>OA4</t>
   </si>
   <si>
-    <t>OA3</t>
+    <t>4891028707844</t>
+  </si>
+  <si>
+    <t>bag-1</t>
+  </si>
+  <si>
+    <t>Fancy Lin</t>
+  </si>
+  <si>
+    <t>4891028707837</t>
+  </si>
+  <si>
+    <t>bag-4</t>
   </si>
 </sst>
 </file>
@@ -411,7 +426,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,10 +434,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -469,7 +484,7 @@
       </c>
       <c r="F2"/>
       <c r="G2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -483,77 +498,140 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3"/>
       <c r="G3">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4"/>
       <c r="G4">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5"/>
       <c r="G5">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6"/>
       <c r="G6">
-        <v>40</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -37,45 +37,6 @@
   </si>
   <si>
     <t>Quantity</t>
-  </si>
-  <si>
-    <t>OA2</t>
-  </si>
-  <si>
-    <t>Todd Zhou</t>
-  </si>
-  <si>
-    <t>A0</t>
-  </si>
-  <si>
-    <t>OA9</t>
-  </si>
-  <si>
-    <t>OA13-1</t>
-  </si>
-  <si>
-    <t>OA13-2</t>
-  </si>
-  <si>
-    <t>OA3</t>
-  </si>
-  <si>
-    <t>OA4</t>
-  </si>
-  <si>
-    <t>4891028707844</t>
-  </si>
-  <si>
-    <t>bag-1</t>
-  </si>
-  <si>
-    <t>Fancy Lin</t>
-  </si>
-  <si>
-    <t>4891028707837</t>
-  </si>
-  <si>
-    <t>bag-4</t>
   </si>
 </sst>
 </file>
@@ -426,7 +387,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +395,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.712158" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -464,174 +425,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9">
-        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -37,6 +37,33 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>BHL001</t>
+  </si>
+  <si>
+    <t>Sam Shao</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>Chandelier Snak</t>
+  </si>
+  <si>
+    <t>Trampoline Green</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>粗三环</t>
   </si>
 </sst>
 </file>
@@ -387,7 +414,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,10 +422,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -425,6 +452,166 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>742271416370</v>
+      </c>
+      <c r="C3">
+        <v>742271416370</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>742271417056</v>
+      </c>
+      <c r="C4">
+        <v>742271417056</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>742271416356</v>
+      </c>
+      <c r="C8">
+        <v>742271416356</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>742271417056</v>
+      </c>
+      <c r="C9">
+        <v>742271417056</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -37,33 +37,6 @@
   </si>
   <si>
     <t>Quantity</t>
-  </si>
-  <si>
-    <t>BHL001</t>
-  </si>
-  <si>
-    <t>Sam Shao</t>
-  </si>
-  <si>
-    <t>A0</t>
-  </si>
-  <si>
-    <t>Chandelier Snak</t>
-  </si>
-  <si>
-    <t>Trampoline Green</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>粗三环</t>
   </si>
 </sst>
 </file>
@@ -414,7 +387,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,10 +395,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.712158" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -452,166 +425,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>742271416370</v>
-      </c>
-      <c r="C3">
-        <v>742271416370</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>742271417056</v>
-      </c>
-      <c r="C4">
-        <v>742271417056</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>742271416356</v>
-      </c>
-      <c r="C8">
-        <v>742271416356</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>742271417056</v>
-      </c>
-      <c r="C9">
-        <v>742271417056</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -37,6 +37,54 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>OA3</t>
+  </si>
+  <si>
+    <t>Todd Zhou</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>OA4</t>
+  </si>
+  <si>
+    <t>OA13-2</t>
+  </si>
+  <si>
+    <t>OA13-1</t>
+  </si>
+  <si>
+    <t>OA2</t>
+  </si>
+  <si>
+    <t>OA9</t>
+  </si>
+  <si>
+    <t>OA6-1</t>
+  </si>
+  <si>
+    <t>4891028707844</t>
+  </si>
+  <si>
+    <t>bag-1</t>
+  </si>
+  <si>
+    <t>Fancy Lin</t>
+  </si>
+  <si>
+    <t>4891028707837</t>
+  </si>
+  <si>
+    <t>bag-4</t>
+  </si>
+  <si>
+    <t>23D7WB</t>
+  </si>
+  <si>
+    <t>Vee Trading</t>
   </si>
 </sst>
 </file>
@@ -387,7 +435,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,10 +443,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -425,6 +473,216 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -45,6 +45,9 @@
     <t>Todd Zhou</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>A0</t>
   </si>
   <si>
@@ -84,7 +87,7 @@
     <t>23D7WB</t>
   </si>
   <si>
-    <t>Vee Trading</t>
+    <t>Newman Trading</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +449,7 @@
     <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -493,28 +496,28 @@
       </c>
       <c r="F2"/>
       <c r="G2">
-        <v>14</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3"/>
       <c r="G3">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -531,11 +534,11 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4"/>
       <c r="G4">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -552,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5"/>
       <c r="G5">
@@ -573,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6"/>
       <c r="G6">
@@ -594,7 +597,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7"/>
       <c r="G7">
@@ -615,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8"/>
       <c r="G8">
@@ -630,34 +633,34 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9"/>
       <c r="G9">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10"/>
       <c r="G10">
@@ -666,22 +669,43 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11"/>
       <c r="G11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12">
         <v>0</v>
       </c>
     </row>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -39,18 +39,48 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Chevy Equinox cargo cover-BOX</t>
+  </si>
+  <si>
+    <t>X001QM0TWV</t>
+  </si>
+  <si>
+    <t>Newman Trading</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>CRV FLOOR MAT</t>
+  </si>
+  <si>
+    <t>TP104</t>
+  </si>
+  <si>
+    <t>TTX  Techonology</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>CHR FLOOR MAT</t>
+  </si>
+  <si>
+    <t>TP108</t>
+  </si>
+  <si>
+    <t>ATIMA FLOOR MAT</t>
+  </si>
+  <si>
+    <t>TP120</t>
+  </si>
+  <si>
     <t>OA3</t>
   </si>
   <si>
     <t>Todd Zhou</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A0</t>
-  </si>
-  <si>
     <t>OA4</t>
   </si>
   <si>
@@ -69,25 +99,22 @@
     <t>OA6-1</t>
   </si>
   <si>
+    <t>4891028707837</t>
+  </si>
+  <si>
+    <t>bag-4</t>
+  </si>
+  <si>
+    <t>Fancy Lin</t>
+  </si>
+  <si>
     <t>4891028707844</t>
   </si>
   <si>
     <t>bag-1</t>
   </si>
   <si>
-    <t>Fancy Lin</t>
-  </si>
-  <si>
-    <t>4891028707837</t>
-  </si>
-  <si>
-    <t>bag-4</t>
-  </si>
-  <si>
     <t>23D7WB</t>
-  </si>
-  <si>
-    <t>Newman Trading</t>
   </si>
 </sst>
 </file>
@@ -438,7 +465,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +473,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="35.2771" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -483,163 +510,163 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2"/>
       <c r="G2">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3"/>
       <c r="G3">
-        <v>15</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4"/>
       <c r="G4">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5"/>
       <c r="G5">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6"/>
       <c r="G6">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F7"/>
       <c r="G7">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F8"/>
       <c r="G8">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F9"/>
       <c r="G9">
@@ -648,64 +675,148 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F10"/>
       <c r="G10">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F11"/>
       <c r="G11">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F12"/>
       <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16">
         <v>0</v>
       </c>
     </row>

--- a/admin/assets/file/export/inventory.xlsx
+++ b/admin/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -39,6 +39,36 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>OA9</t>
+  </si>
+  <si>
+    <t>Todd Zhou</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>CHR SEAT COVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC-CHR-R  </t>
+  </si>
+  <si>
+    <t>TTX  Techonology</t>
+  </si>
+  <si>
+    <t>OA13-2</t>
+  </si>
+  <si>
+    <t>CHR FLOOR MAT</t>
+  </si>
+  <si>
+    <t>TP108</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>Chevy Equinox cargo cover-BOX</t>
   </si>
   <si>
@@ -48,27 +78,12 @@
     <t>Newman Trading</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>CRV FLOOR MAT</t>
   </si>
   <si>
     <t>TP104</t>
   </si>
   <si>
-    <t>TTX  Techonology</t>
-  </si>
-  <si>
-    <t>A0</t>
-  </si>
-  <si>
-    <t>CHR FLOOR MAT</t>
-  </si>
-  <si>
-    <t>TP108</t>
-  </si>
-  <si>
     <t>ATIMA FLOOR MAT</t>
   </si>
   <si>
@@ -78,22 +93,13 @@
     <t>OA3</t>
   </si>
   <si>
-    <t>Todd Zhou</t>
-  </si>
-  <si>
     <t>OA4</t>
   </si>
   <si>
-    <t>OA13-2</t>
-  </si>
-  <si>
     <t>OA13-1</t>
   </si>
   <si>
     <t>OA2</t>
-  </si>
-  <si>
-    <t>OA9</t>
   </si>
   <si>
     <t>OA6-1</t>
@@ -465,7 +471,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,226 +516,226 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2"/>
       <c r="G2">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F3"/>
       <c r="G3">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4"/>
       <c r="G4">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5"/>
       <c r="G5">
-        <v>200</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F6"/>
       <c r="G6">
-        <v>120</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F7"/>
       <c r="G7">
-        <v>15</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F8"/>
       <c r="G8">
-        <v>6</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9"/>
       <c r="G9">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F10"/>
       <c r="G10">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F11"/>
       <c r="G11">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F12"/>
       <c r="G12">
@@ -738,19 +744,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F13"/>
       <c r="G13">
@@ -759,40 +765,40 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F14"/>
       <c r="G14">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F15"/>
       <c r="G15">
@@ -807,16 +813,37 @@
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F16"/>
       <c r="G16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17">
         <v>0</v>
       </c>
     </row>
